--- a/protected/commands/template/m_template_one.xlsx
+++ b/protected/commands/template/m_template_one.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SAMSUNG</author>
-    <author>微软用户</author>
+    <author>微軟用戶</author>
   </authors>
   <commentList>
     <comment ref="A20" authorId="0">
@@ -25,11 +25,11 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-不含保证薪金的同事</t>
+不含保證薪金的同事</t>
         </r>
       </text>
     </comment>
@@ -39,19 +39,19 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>微软用户:</t>
+          <t>微軟用戶:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-备注：截止目前6月份超过90天未收到款客户金额为：5526.2，此为客户倒闭或者服务效果不好强行扣除费用，已于2016年6月营业摘要扣除专营权费用</t>
+備註：截止目前6月份超過90天未收到款客戶金額為：5526.2，此為客戶倒閉或者服務效果不好強行扣除費用，已於2016年6月營業摘要扣除專營權費用</t>
         </r>
       </text>
     </comment>
@@ -60,10 +60,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>这个是在20号的财务报表里面取得的</t>
+          <t>這個是在20號的財務報表裏面取得的</t>
         </r>
       </text>
     </comment>
@@ -72,11 +72,11 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-税前工资+公司部份社保+公司部份工积金 </t>
+稅前工資+公司部份社保+公司部份工積金 </t>
         </r>
       </text>
     </comment>
@@ -85,11 +85,11 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-只计算IA合同数量</t>
+只計算IA合同數量</t>
         </r>
       </text>
     </comment>
@@ -98,11 +98,11 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-新地区销售人少也要划分区域，以市场适合划分多少区域为准</t>
+新地區銷售人少也要劃分區域，以市場適合劃分多少區域為准</t>
         </r>
       </text>
     </comment>
@@ -111,30 +111,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
-  <si>
-    <t>地区表现标准月报表</t>
-  </si>
-  <si>
-    <t>管理项目</t>
-  </si>
-  <si>
-    <t>成绩</t>
-  </si>
-  <si>
-    <t>评分标准</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
+  <si>
+    <t>地區表現標準月報表</t>
+  </si>
+  <si>
+    <t>管理專案</t>
+  </si>
+  <si>
+    <t>成績</t>
+  </si>
+  <si>
+    <t>評分標準</t>
   </si>
   <si>
     <t>得分</t>
   </si>
   <si>
-    <t>部门得分/总得分</t>
-  </si>
-  <si>
-    <t>上月生意额</t>
-  </si>
-  <si>
-    <t>今月生意额</t>
+    <t>部門得分/總得分</t>
+  </si>
+  <si>
+    <t>上月生意額</t>
+  </si>
+  <si>
+    <t>今月生意額</t>
   </si>
   <si>
     <r>
@@ -155,7 +155,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -177,7 +177,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -199,7 +199,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>务年</t>
+      <t>務年</t>
     </r>
     <r>
       <rPr>
@@ -219,7 +219,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>务年</t>
+      <t>務年</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +261,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -283,7 +283,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>务年</t>
+      <t>務年</t>
     </r>
     <r>
       <rPr>
@@ -303,134 +303,134 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
-    </r>
-  </si>
-  <si>
-    <t>上月新业务年生意额</t>
-  </si>
-  <si>
-    <t>今月新业务年生意额</t>
-  </si>
-  <si>
-    <t>今月IC+飘盈香+甲醛+厨房其他年生意额</t>
-  </si>
-  <si>
-    <t>去年今月新业务年生意额</t>
-  </si>
-  <si>
-    <t>去年今月IC+飘盈香+甲醛+厨房其他年生意额</t>
-  </si>
-  <si>
-    <t>今月餐饮年生意额</t>
-  </si>
-  <si>
-    <t>今月非餐饮年生意额</t>
-  </si>
-  <si>
-    <t>上月生意净增长 （年生意额）</t>
-  </si>
-  <si>
-    <t>新增服务年金额+更改服务年差额-終止服务年金额</t>
-  </si>
-  <si>
-    <t>今月生意净增长 （年生意额）</t>
-  </si>
-  <si>
-    <t>去年今月生意额净增长 （年生意额）</t>
-  </si>
-  <si>
-    <t>今月服务金额</t>
-  </si>
-  <si>
-    <t>今月停单月生意额</t>
-  </si>
-  <si>
-    <t>技术员当月平均生意额</t>
-  </si>
-  <si>
-    <t>当月最高技术员生意金额</t>
-  </si>
-  <si>
-    <t>问题客户（应收报表超过90天）总金额</t>
-  </si>
-  <si>
-    <t>在应收帐报表里面</t>
-  </si>
-  <si>
-    <t>今月收款额</t>
-  </si>
-  <si>
-    <t>今月材料订购金额</t>
+      <t>額</t>
+    </r>
+  </si>
+  <si>
+    <t>上月新業務年生意額</t>
+  </si>
+  <si>
+    <t>今月新業務年生意額</t>
+  </si>
+  <si>
+    <t>今月IC+飄盈香+甲醛+廚房其他年生意額</t>
+  </si>
+  <si>
+    <t>去年今月新業務年生意額</t>
+  </si>
+  <si>
+    <t>去年今月IC+飄盈香+甲醛+廚房其他年生意額</t>
+  </si>
+  <si>
+    <t>今月餐飲年生意額</t>
+  </si>
+  <si>
+    <t>今月非餐飲年生意額</t>
+  </si>
+  <si>
+    <t>上月生意淨增長 （年生意額）</t>
+  </si>
+  <si>
+    <t>新增服務年金額+更改服務年差額-終止服務年金額</t>
+  </si>
+  <si>
+    <t>今月生意淨增長 （年生意額）</t>
+  </si>
+  <si>
+    <t>去年今月生意額淨增長 （年生意額）</t>
+  </si>
+  <si>
+    <t>今月服務金額</t>
+  </si>
+  <si>
+    <t>今月停單月生意額</t>
+  </si>
+  <si>
+    <t>技術員當月平均生意額</t>
+  </si>
+  <si>
+    <t>當月最高技術員生意金額</t>
+  </si>
+  <si>
+    <t>問題客戶（應收報表超過90天）總金額</t>
+  </si>
+  <si>
+    <t>在應收帳報表裏面</t>
+  </si>
+  <si>
+    <t>今月收款額</t>
+  </si>
+  <si>
+    <t>今月材料訂購金額</t>
   </si>
   <si>
     <t>IA+IB成本</t>
   </si>
   <si>
-    <t>技术员今月领货金额（IA）</t>
+    <t>技術員今月領貨金額（IA）</t>
   </si>
   <si>
     <t>IA成本</t>
   </si>
   <si>
-    <t>技术员今月领货金额（IB）</t>
+    <t>技術員今月領貨金額（IB）</t>
   </si>
   <si>
     <t>IB成本</t>
   </si>
   <si>
-    <t>今月技术员总工资</t>
-  </si>
-  <si>
-    <t>财务报表技术员总工资里面</t>
-  </si>
-  <si>
-    <t>今月工资总金额</t>
-  </si>
-  <si>
-    <t>财务报表总工资里面</t>
-  </si>
-  <si>
-    <t>上月底公司累计结余</t>
-  </si>
-  <si>
-    <t>上月新（IA，IB）服务合同数目</t>
-  </si>
-  <si>
-    <t>今月新（IA，IB）服务合同数目</t>
-  </si>
-  <si>
-    <t>今月新IA服务合同数目</t>
-  </si>
-  <si>
-    <t>今月新IA需安装服务合同数目</t>
-  </si>
-  <si>
-    <t>去年今月新（IA，IB）服务合同数目</t>
-  </si>
-  <si>
-    <t>锦旗今月数目</t>
-  </si>
-  <si>
-    <t>襟章获颁技术员数目</t>
-  </si>
-  <si>
-    <t>襟章发放数目</t>
-  </si>
-  <si>
-    <t>上月客诉数目</t>
-  </si>
-  <si>
-    <t>今月客诉数目</t>
-  </si>
-  <si>
-    <t>当月解决客诉数目</t>
-  </si>
-  <si>
-    <t>日报表里面当月的数目</t>
-  </si>
-  <si>
-    <t>2天内解决客诉数目</t>
+    <t>今月技術員總工資</t>
+  </si>
+  <si>
+    <t>財務報表技術員總工資裏面</t>
+  </si>
+  <si>
+    <t>今月工資總金額</t>
+  </si>
+  <si>
+    <t>財務報表總工資裏面</t>
+  </si>
+  <si>
+    <t>上月底公司累計結餘</t>
+  </si>
+  <si>
+    <t>上月新（IA，IB）服務合同數目</t>
+  </si>
+  <si>
+    <t>今月新（IA，IB）服務合同數目</t>
+  </si>
+  <si>
+    <t>今月新IA服務合同數目</t>
+  </si>
+  <si>
+    <t>今月新IA需安裝服務合同數目</t>
+  </si>
+  <si>
+    <t>去年今月新（IA，IB）服務合同數目</t>
+  </si>
+  <si>
+    <t>錦旗今月數目</t>
+  </si>
+  <si>
+    <t>襟章獲頒技術員數目</t>
+  </si>
+  <si>
+    <t>襟章發放數目</t>
+  </si>
+  <si>
+    <t>上月客訴數目</t>
+  </si>
+  <si>
+    <t>今月客訴數目</t>
+  </si>
+  <si>
+    <t>當月解決客訴數目</t>
+  </si>
+  <si>
+    <t>日報表裏面當月的數目</t>
+  </si>
+  <si>
+    <t>2天內解決客訴數目</t>
   </si>
   <si>
     <r>
@@ -451,7 +451,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>诉</t>
+      <t>訴</t>
     </r>
     <r>
       <rPr>
@@ -461,7 +461,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>后7天</t>
+      <t>後7天</t>
     </r>
     <r>
       <rPr>
@@ -471,7 +471,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>内电话</t>
+      <t>內電話</t>
     </r>
     <r>
       <rPr>
@@ -491,7 +491,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>户</t>
+      <t>戶</t>
     </r>
     <r>
       <rPr>
@@ -511,7 +511,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>访数</t>
+      <t>訪數</t>
     </r>
     <r>
       <rPr>
@@ -525,826 +525,981 @@
     </r>
   </si>
   <si>
-    <t>队长/组长跟客诉技术员面谈数目</t>
-  </si>
-  <si>
-    <t>问题客户需要队长/组长跟进数目</t>
-  </si>
-  <si>
-    <t>今月质检客户数量</t>
-  </si>
-  <si>
-    <t>低于70分质检客户数量</t>
-  </si>
-  <si>
-    <t>质检拜访平均分数最高同事</t>
-  </si>
-  <si>
-    <t>5天成功安装机器合同数目</t>
-  </si>
-  <si>
-    <t>7天成功安排首次合同数目</t>
-  </si>
-  <si>
-    <t>车辆数目</t>
-  </si>
-  <si>
-    <t>今月平均每部车用油金额</t>
-  </si>
-  <si>
-    <t>今月应送皂液（桶）</t>
-  </si>
-  <si>
-    <t>今月实际送皂液（桶）</t>
-  </si>
-  <si>
-    <t>今月应送纸品（箱）</t>
-  </si>
-  <si>
-    <t>今月实际送纸品（箱）</t>
-  </si>
-  <si>
-    <t>上月盘点准确度
-（实际货品量/储存电脑数量）%</t>
-  </si>
-  <si>
-    <t>超过一个月没有签署劳动合同同事数目（张）</t>
-  </si>
-  <si>
-    <t>今月销售离职人数（工作满一个月）数目</t>
-  </si>
-  <si>
-    <t>今月技术员离职人数（工作满一个月）数目</t>
-  </si>
-  <si>
-    <t>今月办公室离职人数（工作满一个月）数目</t>
-  </si>
-  <si>
-    <t>技术员今月整体人员数目</t>
-  </si>
-  <si>
-    <t>现有队长数目</t>
-  </si>
-  <si>
-    <t>现有组长数目</t>
-  </si>
-  <si>
-    <t>今月销售人员数目</t>
-  </si>
-  <si>
-    <t>今月办公室人员数目</t>
-  </si>
-  <si>
-    <t>销售划分区域</t>
-  </si>
-  <si>
-    <t>销售公共区域</t>
-  </si>
-  <si>
-    <t>总分 (100分满分）</t>
-  </si>
-  <si>
-    <t>销售部</t>
-  </si>
-  <si>
-    <t>新生意情况</t>
-  </si>
-  <si>
-    <t>新(IA,IB)新服务年生意额增长 （(当月-上月)/上月)</t>
-  </si>
-  <si>
-    <t>-20% - -10%     :  1
--10% - 0%   :  2
-0% - 10%   :  3
-10% - 20%   :  4
-&gt; 20% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)服务年生意额同比增长 （(当月-去年当月）/去年当月)</t>
-  </si>
-  <si>
-    <t>新增(IA,IB)生意合同数目增长（(当月-上月)/上月)</t>
-  </si>
-  <si>
-    <t>-40% - -20%     :  1
--20% - 0%   :  2
-0% - 20%   :  3
-20% - 40%   :  4
-&gt; 40% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)生意合同数目同比增长（(当月-去年当月)/去年当月)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新业务(飘盈香，甲醛，厨房或其他)新年生意金额增长（(当月-上月)/上月)
+    <t>隊長/組長跟客訴技術員面談數目</t>
+  </si>
+  <si>
+    <t>問題客戶需要隊長/組長跟進數目</t>
+  </si>
+  <si>
+    <t>今月質檢客戶數量</t>
+  </si>
+  <si>
+    <t>低於70分質檢客戶數量</t>
+  </si>
+  <si>
+    <t>質檢拜訪平均分數最高同事</t>
+  </si>
+  <si>
+    <t>5天成功安裝機器合同數目</t>
+  </si>
+  <si>
+    <t>7天成功安排首次合同數目</t>
+  </si>
+  <si>
+    <t>車輛數目</t>
+  </si>
+  <si>
+    <t>今月平均每部車用油金額</t>
+  </si>
+  <si>
+    <t>今月應送皂液（桶）</t>
+  </si>
+  <si>
+    <t>今月實際送皂液（桶）</t>
+  </si>
+  <si>
+    <t>今月應送紙品（箱）</t>
+  </si>
+  <si>
+    <t>今月實際送紙品（箱）</t>
+  </si>
+  <si>
+    <t>上月盤點準確度
+（實際貨品量/儲存電腦數量）%</t>
+  </si>
+  <si>
+    <t>超過一個月沒有簽署勞動合同同事數目（張）</t>
+  </si>
+  <si>
+    <t>今月銷售離職人數（工作滿一個月）數目</t>
+  </si>
+  <si>
+    <t>今月技術員離職人數（工作滿一個月）數目</t>
+  </si>
+  <si>
+    <t>今月辦公室離職人數（工作滿一個月）數目</t>
+  </si>
+  <si>
+    <t>技術員今月整體人員數目</t>
+  </si>
+  <si>
+    <t>現有隊長數目</t>
+  </si>
+  <si>
+    <t>現有組長數目</t>
+  </si>
+  <si>
+    <t>今月銷售人員數目</t>
+  </si>
+  <si>
+    <t>今月辦公室人員數目</t>
+  </si>
+  <si>
+    <t>銷售劃分區域</t>
+  </si>
+  <si>
+    <t>銷售公共區域</t>
+  </si>
+  <si>
+    <t>總分 (100分滿分）</t>
+  </si>
+  <si>
+    <t>銷售部</t>
+  </si>
+  <si>
+    <t>新生意情況</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意年金額增長 （(當月-上月)/上月)</t>
+  </si>
+  <si>
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8%  : 3
+9% ~ 14%  : 4
+&gt; =15%  : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意年金額橫比增長 （(當月-去年當月）/去年當月)</t>
+  </si>
+  <si>
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt; =15% : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意合同數量增長（(當月-上月)/上月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+4% ~ -9% : 2
+5% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意合同數量橫比增長（(當月-去年當月)/去年當月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+0% ~ -9% : 2
+10% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(空氣淨化機, 飄盈香，甲醛，廚房或其他)新生意年金額增長 （(當月-上月)/上月)
 </t>
   </si>
   <si>
-    <t>-200% - -100%     :  1
--100% - 0% : 2
-0% - 100% :3
-100% - 300%   :  4
-&gt; 300% :  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新兴业务(飘盈香，甲醛，厨房或其他)新年生意金额同比增长 （(当月-去年当月)/去年当月)
+    <t>-100% ~ -200% : 1
+&lt;0% ~ -99% : 2
+&gt;=0% ~ 99% : 3
+100% ~ 149% : 4
+&gt;= 150% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(空氣淨化機,飄盈香，甲醛，廚房或其他)新生意年金額橫比增長 （(當月-去年當月)/去年當月)
 </t>
   </si>
   <si>
-    <t>公司年生意额净增长比例（（当月-上月）/上月）</t>
-  </si>
-  <si>
-    <t>公司年生意额净增长同比比例（（当月-去年当月）/去年当月）</t>
-  </si>
-  <si>
-    <t>生意结构比例</t>
+    <t>公司整體生意年金額淨增長比例（（當月-上月）/上月）</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+&lt;0% ~ -9% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
+  </si>
+  <si>
+    <t>公司整體生意淨增長年金額橫比比例（（當月-去年當月）/去年當月）</t>
+  </si>
+  <si>
+    <t>-16% ~ -30% : 1
+&lt;0% ~ -15% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
+  </si>
+  <si>
+    <t>生意結構比例</t>
+  </si>
+  <si>
+    <t>餐飲非餐飲年生意額比例</t>
+  </si>
+  <si>
+    <t>20% ~ 39% : 1
+40% ~ 69% : 2
+70% ~ 99% : 4
+100% ~ 149% : 5
+150% ~ 229% : 3
+&gt;= 230% : 1</t>
+  </si>
+  <si>
+    <t>IA, IB年生意額比例</t>
+  </si>
+  <si>
+    <t>5% ~ 19% : 1
+20% ~ 39% : 2
+40% ~ 59% : 4
+60% ~ 79% : 5
+80% ~ 99% : 3
+&gt;= 100% : 1</t>
+  </si>
+  <si>
+    <t>停單情況</t>
+  </si>
+  <si>
+    <t>停單金額占生意比例% （當月停單總月金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>0% ~ 0.8% : 5
+0.9% ~ 1.9% : 4
+2.0% ~ 2.8% : 3
+2.9% ~ 3.8% : 2
+&gt;= 3.9% : 1</t>
+  </si>
+  <si>
+    <t>外勤部</t>
+  </si>
+  <si>
+    <t>技術員生產力</t>
+  </si>
+  <si>
+    <t>上月技術員平均生意額超出標準門欄比例 （標準：130000/月， 當地平均技術員生意額 - 標準生意額 / 標準生意額 ），主管/主任級別以下技術員</t>
+  </si>
+  <si>
+    <t>&gt;=20% : 5
+0% ~ 19% : 4
+-9% ~ -1% : 3
+-19% ~ -10% : 2
+-29% ~ -20% : 1
+&lt; -30% : 0</t>
+  </si>
+  <si>
+    <t>上月技術員最高生意額技術員金額跟標準比較  （標準：130000/月)</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;=70% : 5
+30% - 69% : 4
+10% - 29%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>餐饮非餐饮</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>上月技術員最低生意額技術員金額</t>
+  </si>
+  <si>
+    <t>僅供參考，不計算分數</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>技術員成本</t>
+  </si>
+  <si>
+    <t>技術員用料比例 清潔（技術員領貨金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>&lt;=10% : 5
+11% ~ 15% : 4
+16% ~ 20% : 3
+21% ~ 25% : 2
+26% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>&lt;=5% : 5
+6% ~ 10% : 4
+11% ~ 15% : 3
+16% ~ 20% : 2
+21% ~ 25% : 1
+&gt;26% : 0</t>
+  </si>
+  <si>
+    <t>獲獎情況</t>
+  </si>
+  <si>
+    <t>當月錦旗獲獎數目占整體技術員比例 （錦旗數目/整體技術員數目）</t>
+  </si>
+  <si>
+    <t>&gt;20% : 5
+10% ~ 19% : 3
+1% ~ 9% : 1
+&lt;=0% : 0</t>
+  </si>
+  <si>
+    <t>當月襟章頒發明細 （P:N) P為受頒技術員數目，N為襟章發放數目</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> :</t>
+  </si>
+  <si>
+    <t>財務部</t>
+  </si>
+  <si>
+    <t>財政狀況</t>
+  </si>
+  <si>
+    <t>毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月生意額</t>
+  </si>
+  <si>
+    <t>&gt;=55% : 5
+50% ~ 54% : 4
+45% ~ 49% : 3
+40% ~ 44% : 2
+36% ~ 39% : 1
+&lt;=35% : 0</t>
+  </si>
+  <si>
+    <t>工資占生意額比例</t>
+  </si>
+  <si>
+    <t>20% ~ 24% : 5
+25% ~ 34% : 4
+35% ~ 39% : 3
+40% ~ 49% : 2
+&gt;50% : 1</t>
+  </si>
+  <si>
+    <t>收款情況</t>
+  </si>
+  <si>
+    <t>收款效率（當月收款額/上月生意額）</t>
+  </si>
+  <si>
+    <t>&gt; =100% : 5
+95% ~ 99% : 4
+90% ~ 94% : 3
+85% ~ 89% : 2
+80% ~ 84% : 1</t>
+  </si>
+  <si>
+    <t>公司累積結餘（到每月最後一天止）</t>
+  </si>
+  <si>
+    <t>應收未收帳情況</t>
+  </si>
+  <si>
+    <t>問題客人（超過90天沒有結款）比例
+(問題客戶總月費金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>&lt;= 30% : 5
+31% ~ 40% : 4
+41% ~ 50% :3
+51% ~ 60% : 2
+61% ~ 70% : 1</t>
+  </si>
+  <si>
+    <t>營運部</t>
+  </si>
+  <si>
+    <t>整體情況</t>
+  </si>
+  <si>
+    <t>新合同7天內安排首次比例 （成功7天首次客戶數目/整體當月新合同數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>新生意年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-    </r>
-  </si>
-  <si>
-    <t>20% - 40%     :  1
-40% - 70%   :  2
-70% - 100%   :  4
-100% - 150%   :  5
-150% - 230% : 3
-&gt; 230% :  1</t>
-  </si>
-  <si>
-    <t>当月IA, IB年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-  </si>
-  <si>
-    <t>停单情况</t>
-  </si>
-  <si>
-    <t>停单金额占生意比例% （当月停单总月金额/当月生意额）</t>
-  </si>
-  <si>
-    <t>0% - 0.8% : 5
-0.8% - 1.6% : 4
-1.6% - 2.4% : 3
-2.4% - 3.2% : 2
-X &gt; 3.2% : 1</t>
-  </si>
-  <si>
-    <t>外勤部</t>
-  </si>
-  <si>
-    <t>技术员生产力</t>
-  </si>
-  <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-0% - 10% : 4
--10% - 0% : 3
--20% - -10% : 2
-'-30% - -20% : 1
-&lt; -30% : 0</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
-  </si>
-  <si>
-    <t>&gt;70% : 5
-30% - 70% : 4
-10% - 30% ： 3</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额</t>
-  </si>
-  <si>
-    <t>仅供参考，不计算分数</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>技术员成本</t>
-  </si>
-  <si>
+      <t>：</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>技术员用料比例 清洁（技术员</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>IA领货金额/当月IA生意额）</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;10% : 5
-10% - 15% : 4
-15% - 20% : 3
-20% - 25% : 2
-25% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>技术员用料比例 灭虫（技术员IB领货金额/当月IB生意额）</t>
-  </si>
-  <si>
-    <t>&lt;5% : 5
-5% - 10% : 4
-10% - 15% : 3
-15% - 20% : 2
-20% - 25% : 1
-&gt;25% : 0</t>
-  </si>
-  <si>
-    <t>获奖情况</t>
-  </si>
-  <si>
-    <t>当月锦旗获奖数目占整体技术员比例 （锦旗数目/整体技术员数目）</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-10% - 20% : 3
-5% - 10% : 1
-&lt;=0% : 0</t>
-  </si>
-  <si>
-    <t>当月襟章颁发明细 （P:N) P为受颁技术员数目，N为襟章发放数目</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> :</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>财政状况</t>
-  </si>
-  <si>
-    <t>IA,IB毛利率 （当月IA,IB生意额 - 材料订购 - 技术员工资）/当月IA,IB生意额</t>
-  </si>
-  <si>
-    <t>&gt;55% : 5
-50% - 55% : 4
-45% - 50%% : 3
-40% - 45% : 2
-35% - 40% : 1
-&lt;35% : 0</t>
-  </si>
-  <si>
-    <t>工资占生意额比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% - 25% : 5
-25% - 28% : 4
-28% - 30% : 3
-30% - 35% : 2
-&gt;35% : 1
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>物流情況</t>
+  </si>
+  <si>
+    <t>運送皂液準確度 （實際送皂液/應送皂液）</t>
+  </si>
+  <si>
+    <t>運送銷售貨品準確度 （實際送銷售貨品/應送銷售貨品）</t>
+  </si>
+  <si>
+    <t>汽車支出平均 （C:M)
+ C : 車輛數目，M：車的平均用油量</t>
+  </si>
+  <si>
+    <t>倉庫情況</t>
+  </si>
+  <si>
+    <t>每月盤點準確度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;=108% : 0
+104% ~ 107% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+101% ~103% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+92% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+88% ~ 91% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <t>新合同5天內安排安裝比例 （成功5天安裝客戶數目/整體當月新合同數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+91% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+86% ~ 90% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+81% ~ 85% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+76% ~ 80% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;= 75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>質檢情況</t>
+  </si>
+  <si>
+    <t>當月質檢客戶數量效率 （跟標準每月客戶拜訪數目比較）
+（估計客戶每個約4000/月，當地服務客戶金額/客戶金額估值=客戶約數量，客戶約數量除6（希望每12個月拜訪客戶一次），等於標準每月客戶拜訪數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;=90% : 5
+70% ~ 89% :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">４
 </t>
-  </si>
-  <si>
-    <t>收款情况</t>
-  </si>
-  <si>
-    <t>收款效率（当月收款额/上月生意额）</t>
-  </si>
-  <si>
-    <t>&gt; 100% : 5
-95% - 100% : 4
-90% - 95% : 3
-85% - 90% : 2
-80% - 85% : 1</t>
-  </si>
-  <si>
-    <t>公司累积结余（到每月最后一天止）</t>
-  </si>
-  <si>
-    <t>应收未收帐情况</t>
-  </si>
-  <si>
-    <t>问题客人（超过90天没有结款）比例
-(问题客户总月费金额/当月生意额）</t>
-  </si>
-  <si>
-    <t>&lt;= 30% : 5
-30% - 40% : 4
-40% - 50% :３
-50% - 60% : 2
-60% - 70% : 1</t>
-  </si>
-  <si>
-    <t>营运部</t>
-  </si>
-  <si>
-    <t>整体情况</t>
-  </si>
-  <si>
-    <t>新合同7天内安排首次比例 （成功7天首次客户数目/整体当月新IA,IB合同数目）</t>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;75% : 0</t>
-  </si>
-  <si>
-    <t>物流情况</t>
-  </si>
-  <si>
-    <t>运送皂液准确度 （实际送皂液/应送皂液）</t>
-  </si>
-  <si>
-    <t>运送销售货品准确度 （实际送销售货品/应送销售货品）</t>
-  </si>
-  <si>
-    <t>汽车支出平均 （C:M)
- C : 车辆数目，M：车的平均用油量</t>
-  </si>
-  <si>
-    <t>仓库情况</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每月盘点准确度
-</t>
-  </si>
-  <si>
-    <t>&gt;108% : 0
-104% - 108% ： 1
-100% -104% ： 3
-96% - 100% ： 5
-92% - 96% ： 3
-88% - 92% ： 1</t>
-  </si>
-  <si>
-    <r>
-      <t>新合同5天</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内</t>
-    </r>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50% ~ 69% : 3
+30% ~ 49% : 2
+10% ~ 29% : 1
+&lt;9% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>質檢問題客戶數量比例 
+（問題客戶 ： 質檢拜訪客戶分數低於70分。問題客戶/當月質檢拜訪客戶 = 質檢問題客戶數量比例）</t>
+  </si>
+  <si>
+    <t>&gt;20% : 3
+10% ~ 19% : 5
+0% ~ 9% : 1</t>
+  </si>
+  <si>
+    <t>表現滿意技術員 (質檢拜訪表平均分數最高同事）</t>
+  </si>
+  <si>
+    <t>客訴處理</t>
+  </si>
+  <si>
+    <t>當月客訴數目比較（當月客訴數目 - 上月客訴數目 / 上月客訴數目）</t>
+  </si>
+  <si>
+    <t>&lt; -15% : 5
+-10% ~ -14% : 4
+-5% ~ -9% : 3
+-1% ~ -4% : 2
+5% ~ 0% : 1
+&gt;=6% : 0</t>
+  </si>
+  <si>
+    <t>客訴解決效率（高效客訴數目 = 2工作天內處理完成客訴數量）
+（客訴解決效率 = 高效客訴解決數目/當月客訴數目）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>安排安</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>比例 （成功5天安</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>客</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户数</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>目/今月新IA</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需安装</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>服</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>务</t>
-    </r>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;74% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>主任跟投訴技術員面談比例 
+（主任/組長面談客訴技術員數目/客訴數目）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8% ~10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>合同</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+6% ~ 7% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>目）</t>
-    </r>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;= 75% : 0</t>
-  </si>
-  <si>
-    <t>质检情况</t>
-  </si>
-  <si>
-    <t>当月质检客户数量效率 （跟标准每月客户拜访数目比较）
-（估计客户每个约￥1500/月，当地服务客户金额/客户金额估值=客户约数量，客户约数量除6（希望每12个月拜访客户一次），等于标准每月客户拜访数目）</t>
-  </si>
-  <si>
-    <t>&gt;90% : 5
-70% - 90% :４
-50% - 70% : 3
-30% - 50% : 2
-10% - 30% : 1
-&lt;= 10% : 0</t>
-  </si>
-  <si>
-    <t>质检问题客户数量比例 
-（问题客户 ： 质检拜访客户分数低于70分。问题客户/当月质检拜访客户 = 质检问题客户数量比例）</t>
-  </si>
-  <si>
-    <t>&gt;20% : 3
-10% - 20% : 5
-0% - 10% : 1</t>
-  </si>
-  <si>
-    <t>表现满意技术员 (质检拜访表平均分数最高同事）</t>
-  </si>
-  <si>
-    <t>客诉处理</t>
-  </si>
-  <si>
-    <t>当月客诉数目比较（当月客诉数目 - 上月客诉数目 / 上月客诉数目）</t>
-  </si>
-  <si>
-    <t>&lt;-30% : 5
--30% - -20% : 4
--20% - -10% : 3
--10% - 0% : 2
-0% - 5% : 1
-&gt;5% : 0</t>
-  </si>
-  <si>
-    <t>客诉解决效率（高效客诉数目 = 2工作天内处理完成客诉数量）
-（客诉解决效率 = 高效客诉解决数目/当月客诉数目）</t>
-  </si>
-  <si>
-    <t>队长跟投诉技术员面谈比例 
-（队长/组长面谈客诉技术员数目/客诉数目）</t>
-  </si>
-  <si>
-    <t>15% - 20% ： 5
-10% - 15% ： 3
-5% - 10% ： 1
-&lt;5% : 0</t>
-  </si>
-  <si>
+      <t>：</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+4% ~ 5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>高效回</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率 （高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后7天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内电话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目）
-（高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率=高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今月客诉数目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;3% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>高效回訪率 （高效回訪 = 客訴後7天內電話客戶回訪數目）
+（高效回訪率=高效回訪/當月解決客訴數目）</t>
+  </si>
+  <si>
+    <t>問題客戶需要主任組長跟進數目</t>
   </si>
   <si>
     <t>人事部</t>
   </si>
   <si>
-    <t>所有同事劳动合同进展 (超过一个月没有签署劳动合同同事数目（张））</t>
+    <t>所有同事勞動合同進展 (超過一個月沒有簽署勞動合同同事數目（張））</t>
   </si>
   <si>
     <t>0 : 5
-1 - 3 : 4
-3 - 5 : 3
-&gt;5 : 0</t>
-  </si>
-  <si>
-    <t>销售人员情况</t>
-  </si>
-  <si>
-    <t>销售人员流失率 （工作满一个月的）（离职销售人员/当月所有销售人员）</t>
-  </si>
-  <si>
-    <t>0% - 10% : 5
-10% - 20% : 3
-20% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>销售区域空置率（公共区域/销售划分区域）</t>
-  </si>
-  <si>
-    <t>0% - 20%     :  5
-20% - 60%   :  3
-60%  - 100% :  1</t>
-  </si>
-  <si>
-    <t>外勤人员情况</t>
-  </si>
-  <si>
-    <t>离职技术员（工作满一个月的）人数% （当月离职技术人员/整体外勤技术人员）</t>
-  </si>
-  <si>
-    <t>0% - 5% : 5
-5% - 10% : 3
-10% - 15% : 1
-&gt;15% : 0</t>
-  </si>
-  <si>
-    <t>队长数目跟标准比例 （最多每5个技术员，就要有一个队长的设置) 
-(技术员数目/6=标准队长数目， 比例 = 队长数目/标准队长数目）</t>
-  </si>
-  <si>
-    <t>&gt;100% : 5
-80% - 100% : 3
+1 ~ 3 : 4
+4 ~ 5 : 3
+&gt;6 : 0</t>
+  </si>
+  <si>
+    <t>銷售人員情況</t>
+  </si>
+  <si>
+    <t>銷售人員流失率 （工作滿一個月的）（離職銷售人員/當月所有銷售人員）</t>
+  </si>
+  <si>
+    <t>0% ~ 10% : 5
+11% ~ 20% : 3
+21% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>銷售區域空置率（公共區域/銷售劃分區域）</t>
+  </si>
+  <si>
+    <t>0% ~ 20%     :  5
+21% ~ 60%   :  3
+61%  ~ 100% :  1</t>
+  </si>
+  <si>
+    <t>外勤人員情況</t>
+  </si>
+  <si>
+    <t>離職技術員（工作滿一個月的）人數% （當月離職技術人員/整體外勤技術人員）</t>
+  </si>
+  <si>
+    <t>0% ~ 5% : 5
+6% ~ 10% : 3
+11% ~ 15% : 1
+&gt;16% : 0</t>
+  </si>
+  <si>
+    <t>組長數目跟標準比例 （最多每10個技術員，就要有一個組長的設置) 
+(技術員數目/10=標準組長數目， 比例 = 主管數目/標準主任長數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 99% : 3
 &lt;= 80% : 1</t>
   </si>
   <si>
-    <t>组长数目跟标准比例 （最多每30个技术员，就要有一个组长的设置) 
-(技术员数目/30=标准组长数目， 比例 = 组长数目/标准数目）</t>
-  </si>
-  <si>
-    <t>新招技术员人数</t>
-  </si>
-  <si>
-    <t>办公室人员情况</t>
-  </si>
-  <si>
-    <t>离职办公室（工作满一个月的）人数% （当月离职办公室人员/整体办公室人员）</t>
+    <t>主任數目跟標準比例 （最多每20個技術員，就要有一個主任的設置) 
+(技術員數目/20=標準組長數目， 比例 = 組長數目/標準數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 100% : 3
+&lt;= 80% : 1</t>
+  </si>
+  <si>
+    <t>新招技術員人數</t>
+  </si>
+  <si>
+    <t>辦公室人員情況</t>
+  </si>
+  <si>
+    <t>離職辦公室（工作滿一個月的）人數% （當月離職辦公室人員/整體辦公室人員）</t>
   </si>
 </sst>
 </file>
@@ -1352,14 +1507,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1432,9 +1587,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="新細明體"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1444,14 +1610,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,15 +1633,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1487,20 +1696,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1510,15 +1705,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,32 +1752,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1577,31 +1766,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,13 +1776,6 @@
     <font>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1633,15 +1793,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1684,7 +1843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1867,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1933,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,13 +1975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,25 +1987,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,31 +2041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,79 +2059,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,73 +2113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,26 +2198,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2074,26 +2220,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2124,11 +2250,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="62"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,250 +2315,241 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2541,29 +2700,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2571,6 +2727,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2583,7 +2745,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2595,14 +2757,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2613,10 +2775,16 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,13 +2802,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2652,12 +2820,18 @@
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2670,32 +2844,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="13" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2703,22 +2880,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,27 +2919,27 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2781,11 +2967,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -2795,10 +2978,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2830,26 +3013,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3214,16 +3397,16 @@
   <sheetPr/>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.8796296296296" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.8796296296296" style="7" customWidth="1"/>
     <col min="5" max="5" width="8" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="9" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
@@ -3239,7 +3422,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" ht="33.75" spans="1:6">
+    <row r="2" ht="33.15" spans="1:6">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
@@ -3267,7 +3450,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3460,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
@@ -3287,7 +3470,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
@@ -3297,7 +3480,7 @@
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3307,7 +3490,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3500,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
@@ -3327,7 +3510,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
@@ -3337,7 +3520,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
@@ -3349,7 +3532,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
@@ -3361,7 +3544,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A13" s="23" t="s">
         <v>18</v>
       </c>
@@ -3371,7 +3554,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A14" s="23" t="s">
         <v>19</v>
       </c>
@@ -3381,7 +3564,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
@@ -3393,7 +3576,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
@@ -3405,7 +3588,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A17" s="23" t="s">
         <v>23</v>
       </c>
@@ -3417,7 +3600,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="18" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A18" s="23" t="s">
         <v>24</v>
       </c>
@@ -3427,7 +3610,7 @@
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
@@ -3437,7 +3620,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A20" s="23" t="s">
         <v>26</v>
       </c>
@@ -3447,7 +3630,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A21" s="23" t="s">
         <v>27</v>
       </c>
@@ -3457,7 +3640,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A22" s="23" t="s">
         <v>28</v>
       </c>
@@ -3469,7 +3652,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="23" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A23" s="23" t="s">
         <v>30</v>
       </c>
@@ -3479,7 +3662,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A24" s="23" t="s">
         <v>31</v>
       </c>
@@ -3491,7 +3674,7 @@
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
@@ -3503,7 +3686,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A26" s="23" t="s">
         <v>35</v>
       </c>
@@ -3515,7 +3698,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="27" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A27" s="23" t="s">
         <v>37</v>
       </c>
@@ -3527,7 +3710,7 @@
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A28" s="23" t="s">
         <v>39</v>
       </c>
@@ -3539,7 +3722,7 @@
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="29" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A29" s="23" t="s">
         <v>41</v>
       </c>
@@ -3549,7 +3732,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A30" s="23"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
@@ -3557,7 +3740,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A31" s="23" t="s">
         <v>42</v>
       </c>
@@ -3567,7 +3750,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A32" s="23" t="s">
         <v>43</v>
       </c>
@@ -3577,7 +3760,7 @@
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A33" s="23" t="s">
         <v>44</v>
       </c>
@@ -3587,7 +3770,7 @@
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A34" s="23" t="s">
         <v>45</v>
       </c>
@@ -3597,7 +3780,7 @@
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="35" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A35" s="23" t="s">
         <v>46</v>
       </c>
@@ -3607,7 +3790,7 @@
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="36" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A36" s="23"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -3615,7 +3798,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="37" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A37" s="23" t="s">
         <v>47</v>
       </c>
@@ -3625,7 +3808,7 @@
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="38" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A38" s="23" t="s">
         <v>48</v>
       </c>
@@ -3635,7 +3818,7 @@
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="39" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A39" s="23" t="s">
         <v>49</v>
       </c>
@@ -3645,7 +3828,7 @@
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="40" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A40" s="23"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
@@ -3653,7 +3836,7 @@
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="41" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A41" s="23" t="s">
         <v>50</v>
       </c>
@@ -3663,7 +3846,7 @@
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
@@ -3673,7 +3856,7 @@
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="43" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A43" s="23" t="s">
         <v>52</v>
       </c>
@@ -3685,7 +3868,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="44" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A44" s="23" t="s">
         <v>54</v>
       </c>
@@ -3695,7 +3878,7 @@
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="45" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A45" s="23" t="s">
         <v>55</v>
       </c>
@@ -3705,7 +3888,7 @@
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="46" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A46" s="23" t="s">
         <v>56</v>
       </c>
@@ -3715,7 +3898,7 @@
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="47" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A47" s="23" t="s">
         <v>57</v>
       </c>
@@ -3725,7 +3908,7 @@
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="48" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A48" s="23" t="s">
         <v>58</v>
       </c>
@@ -3735,7 +3918,7 @@
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="49" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A49" s="23" t="s">
         <v>59</v>
       </c>
@@ -3745,7 +3928,7 @@
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="50" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A50" s="23" t="s">
         <v>60</v>
       </c>
@@ -3755,7 +3938,7 @@
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="51" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A51" s="23" t="s">
         <v>61</v>
       </c>
@@ -3765,7 +3948,7 @@
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="52" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A52" s="23" t="s">
         <v>62</v>
       </c>
@@ -3775,7 +3958,7 @@
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="53" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A53" s="23"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -3783,7 +3966,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="54" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A54" s="23" t="s">
         <v>63</v>
       </c>
@@ -3793,7 +3976,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="55" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A55" s="23" t="s">
         <v>64</v>
       </c>
@@ -3803,7 +3986,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="56" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A56" s="23" t="s">
         <v>65</v>
       </c>
@@ -3813,7 +3996,7 @@
       <c r="E56" s="27"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="57" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A57" s="23" t="s">
         <v>66</v>
       </c>
@@ -3823,7 +4006,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="58" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A58" s="23" t="s">
         <v>67</v>
       </c>
@@ -3833,7 +4016,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="59" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A59" s="23" t="s">
         <v>68</v>
       </c>
@@ -3843,7 +4026,7 @@
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="29.25" spans="1:6">
+    <row r="60" s="1" customFormat="1" ht="28.35" spans="1:6">
       <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
@@ -3853,7 +4036,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="61" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A61" s="23"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
@@ -3861,7 +4044,7 @@
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="62" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A62" s="23" t="s">
         <v>70</v>
       </c>
@@ -3871,7 +4054,7 @@
       <c r="E62" s="27"/>
       <c r="F62" s="28"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="63" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A63" s="23" t="s">
         <v>71</v>
       </c>
@@ -3881,7 +4064,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="64" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A64" s="23" t="s">
         <v>72</v>
       </c>
@@ -3891,7 +4074,7 @@
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="65" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A65" s="23" t="s">
         <v>73</v>
       </c>
@@ -3901,7 +4084,7 @@
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="66" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A66" s="23" t="s">
         <v>74</v>
       </c>
@@ -3911,7 +4094,7 @@
       <c r="E66" s="27"/>
       <c r="F66" s="28"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="67" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A67" s="23" t="s">
         <v>75</v>
       </c>
@@ -3921,7 +4104,7 @@
       <c r="E67" s="27"/>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="68" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A68" s="23" t="s">
         <v>76</v>
       </c>
@@ -3931,7 +4114,7 @@
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="69" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A69" s="23" t="s">
         <v>77</v>
       </c>
@@ -3941,7 +4124,7 @@
       <c r="E69" s="27"/>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="70" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A70" s="23" t="s">
         <v>78</v>
       </c>
@@ -3951,7 +4134,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="71" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A71" s="23" t="s">
         <v>79</v>
       </c>
@@ -3961,7 +4144,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="28"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="72" s="1" customFormat="1" ht="14.55" spans="1:6">
       <c r="A72" s="23" t="s">
         <v>80</v>
       </c>
@@ -3971,7 +4154,7 @@
       <c r="E72" s="27"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" ht="21.75" spans="1:6">
+    <row r="73" ht="22.95" spans="1:6">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
       <c r="C73" s="35"/>
@@ -3979,7 +4162,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" ht="21.75" spans="1:6">
+    <row r="74" ht="22.95" spans="1:6">
       <c r="A74" s="39"/>
       <c r="B74" s="40"/>
       <c r="C74" s="41" t="s">
@@ -3989,7 +4172,7 @@
       <c r="E74" s="42"/>
       <c r="F74" s="43">
         <f>SUM(F75:F124)</f>
-        <v>34.237012987013</v>
+        <v>37.237012987013</v>
       </c>
     </row>
     <row r="75" ht="24.95" customHeight="1" spans="1:6">
@@ -4002,10 +4185,10 @@
       <c r="E75" s="47"/>
       <c r="F75" s="48">
         <f>SUM(E76:E86)/55*30</f>
-        <v>11.4545454545455</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="82.5" spans="1:6">
+        <v>14.7272727272727</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A76" s="49" t="s">
         <v>83</v>
       </c>
@@ -4016,16 +4199,16 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="130" t="s">
+      <c r="D76" s="139" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="53">
-        <f>IF(C76&gt;0.2,5,IF(C76&gt;0.1,4,IF(C76&gt;0,3,IF(C76&gt;-0.1,2,IF(C76&gt;-0.2,1,0)))))</f>
-        <v>2</v>
+        <f>IF(C76&gt;=0.15,5,IF(C76&gt;=0.9,4,IF(C76&gt;=0,3,IF(C76&gt;=-0.14,2,IF(C76&gt;=-0.3,1,0)))))</f>
+        <v>3</v>
       </c>
       <c r="F76" s="54"/>
     </row>
-    <row r="77" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="77" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A77" s="49"/>
       <c r="B77" s="50" t="s">
         <v>86</v>
@@ -4034,1660 +4217,1660 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="130" t="s">
-        <v>85</v>
+      <c r="D77" s="139" t="s">
+        <v>87</v>
       </c>
       <c r="E77" s="53">
-        <f>IF(C77&gt;0.2,5,IF(C77&gt;0.1,4,IF(C77&gt;0,3,IF(C77&gt;-0.1,2,IF(C77&gt;-0.2,1,0)))))</f>
-        <v>2</v>
+        <f>IF(C77&gt;=0.15,5,IF(C77&gt;=0.9,4,IF(C77&gt;=0,3,IF(C77&gt;-0.14,2,IF(C77&gt;-0.3,1,0)))))</f>
+        <v>3</v>
       </c>
       <c r="F77" s="54"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A78" s="49"/>
       <c r="B78" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" s="56">
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="131" t="s">
-        <v>88</v>
+      <c r="D78" s="139" t="s">
+        <v>89</v>
       </c>
       <c r="E78" s="53">
-        <f>IF(C78&gt;0.4,5,IF(C78&gt;0.2,4,IF(C78&gt;0,3,IF(C78&gt;-0.2,2,IF(C78&gt;-0.4,1,0)))))</f>
+        <f>IF(C78&gt;=0.3,5,IF(C78&gt;=0.2,4,IF(C78&gt;=0.05,3,IF(C78&gt;=-0.09,2,IF(C78&gt;=-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F78" s="58"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F78" s="57"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A79" s="49"/>
       <c r="B79" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" s="56">
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="131" t="s">
-        <v>88</v>
+      <c r="D79" s="139" t="s">
+        <v>91</v>
       </c>
       <c r="E79" s="53">
-        <f>IF(C79&gt;0.4,5,IF(C79&gt;0.2,4,IF(C79&gt;0,3,IF(C79&gt;-0.2,2,IF(C79&gt;-0.4,1,0)))))</f>
+        <f>IF(C79&gt;=0.3,5,IF(C79&gt;=0.2,4,IF(C79&gt;=0.1,3,IF(C79&gt;=-0.09,2,IF(C79&gt;=-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F79" s="58"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F79" s="57"/>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A80" s="49"/>
       <c r="B80" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" s="56">
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="131" t="s">
-        <v>91</v>
+      <c r="D80" s="139" t="s">
+        <v>93</v>
       </c>
       <c r="E80" s="53">
-        <f>IF(C80&gt;3,5,IF(C80&gt;1,4,IF(C80&gt;0,3,IF(C80&gt;-1,2,IF(C80&gt;-2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F80" s="58"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="82.5" spans="1:6">
+        <f>IF(C80&gt;=1.5,5,IF(C80&gt;=1,4,IF(C80&gt;=0,3,IF(C80&gt;=-0.99,2,IF(C80&gt;-2,1,0)))))</f>
+        <v>3</v>
+      </c>
+      <c r="F80" s="57"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A81" s="49"/>
       <c r="B81" s="55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C81" s="56">
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="131" t="s">
-        <v>91</v>
+      <c r="D81" s="139" t="s">
+        <v>93</v>
       </c>
       <c r="E81" s="53">
-        <f>IF(C81&gt;3,5,IF(C81&gt;1,4,IF(C81&gt;0,3,IF(C81&gt;-1,2,IF(C81&gt;-2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F81" s="58"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="82.5" spans="1:6">
+        <f>IF(C81&gt;=1.5,5,IF(C81&gt;=1,4,IF(C81&gt;=0,3,IF(C81&gt;=-0.99,2,IF(C81&gt;=-2,1,0)))))</f>
+        <v>3</v>
+      </c>
+      <c r="F81" s="57"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A82" s="49"/>
       <c r="B82" s="55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C82" s="56">
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="130" t="s">
-        <v>85</v>
+      <c r="D82" s="139" t="s">
+        <v>96</v>
       </c>
       <c r="E82" s="53">
-        <f>IF(C82&gt;0.2,5,IF(C82&gt;0.1,4,IF(C82&gt;0,3,IF(C82&gt;-0.1,2,IF(C82&gt;-0.2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F82" s="58"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="82.5" spans="1:6">
+        <f>IF(C82&gt;=0.15,5,IF(C82&gt;=0.09,4,IF(C82&gt;=0,3,IF(C82&gt;=-0.09,2,IF(C82&gt;=-0.2,1,0)))))</f>
+        <v>3</v>
+      </c>
+      <c r="F82" s="57"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A83" s="49"/>
       <c r="B83" s="55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C83" s="56">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="130" t="s">
-        <v>85</v>
+      <c r="D83" s="139" t="s">
+        <v>98</v>
       </c>
       <c r="E83" s="53">
-        <f>IF(C83&gt;0.2,5,IF(C83&gt;0.1,4,IF(C83&gt;0,3,IF(C83&gt;-0.1,2,IF(C83&gt;-0.2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F83" s="58"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A84" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="55" t="s">
-        <v>96</v>
+        <f>IF(C83&gt;=0.15,5,IF(C83&gt;=0.09,4,IF(C83&gt;=0,3,IF(C83&gt;=-0.15,2,IF(C83&gt;=-0.3,1,0)))))</f>
+        <v>3</v>
+      </c>
+      <c r="F83" s="57"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A84" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>100</v>
       </c>
       <c r="C84" s="56">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="57" t="s">
-        <v>97</v>
+      <c r="D84" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="E84" s="53">
-        <f>IF(C84&gt;2.3,1,IF(C84&gt;1.5,3,IF(C84&gt;=1,5,IF(C84&gt;0.7,4,IF(C84&gt;0.4,2,IF(C84&gt;0.2,1,0))))))</f>
+        <f>IF(C84&gt;=2.3,1,IF(C84&gt;=1.5,3,IF(C84&gt;=1,5,IF(C84&gt;=0.7,4,IF(C84&gt;=0.4,2,IF(C84&gt;=0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F84" s="58"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A85" s="59"/>
-      <c r="B85" s="55" t="s">
-        <v>98</v>
+      <c r="F84" s="57"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A85" s="58"/>
+      <c r="B85" s="59" t="s">
+        <v>102</v>
       </c>
       <c r="C85" s="56">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="57" t="s">
-        <v>97</v>
+      <c r="D85" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="E85" s="53">
-        <f>IF(C85&gt;2.3,1,IF(C85&gt;1.5,3,IF(C85&gt;=1,5,IF(C85&gt;0.7,4,IF(C85&gt;0.4,2,IF(C85&gt;0.2,1,0))))))</f>
+        <f>IF(C85&gt;=1,1,IF(C85&gt;=0.8,3,IF(C85&gt;=0.6,5,IF(C85&gt;=0.4,4,IF(C85&gt;=0.2,2,IF(C85&gt;=0.05,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F85" s="58"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A86" s="60" t="s">
-        <v>99</v>
+      <c r="F85" s="57"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A86" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C86" s="56">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="57" t="s">
-        <v>101</v>
+      <c r="D86" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="E86" s="53">
-        <f>IF(C86&gt;0.032,1,IF(C86&gt;0.024,2,IF(C86&gt;0.016,3,IF(C86&gt;0.008,4,IF(C86&gt;0,5,5)))))</f>
+        <f>IF(C86&gt;=0.039,1,IF(C86&gt;=0.029,2,IF(C86&gt;=0.02,3,IF(C86&gt;=0.009,4,IF(C86&gt;=0,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="57"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A87" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="66">
+      <c r="A87" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="67">
         <f>SUM(E88:F94)/25*20</f>
         <v>8</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A88" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="69">
+    <row r="88" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A88" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="70">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D88" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" s="71">
-        <f>IF(C88&gt;0.2,5,IF(C88&gt;0,4,IF(C88&gt;-0.1,3,IF(C88&gt;-0.2,2,IF(C88&gt;-0.3,1,0)))))</f>
+      <c r="D88" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="72">
+        <f>IF(C88&gt;=0.2,5,IF(C88&gt;=0,4,IF(C88&gt;=-0.09,3,IF(C88&gt;=-0.19,2,IF(C88&gt;=-0.29,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F88" s="72"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A89" s="67"/>
-      <c r="B89" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="69">
+      <c r="F88" s="73"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="46.2" spans="1:6">
+      <c r="A89" s="68"/>
+      <c r="B89" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="70">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D89" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="71">
-        <f>IF(C89&gt;0.7,5,IF(C89&gt;0.3,4,IF(C89&gt;0.1,3,0)))</f>
+      <c r="D89" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="72">
+        <f>IF(C89&gt;=0.7,5,IF(C89&gt;=0.3,4,IF(C89&gt;=0.1,3,0)))</f>
         <v>0</v>
       </c>
-      <c r="F89" s="72"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A90" s="67"/>
-      <c r="B90" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="73">
+      <c r="F89" s="73"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="32.4" spans="1:6">
+      <c r="A90" s="68"/>
+      <c r="B90" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="74">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D90" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="F90" s="72"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A91" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="69">
+      <c r="D90" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="73"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A91" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="70">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" s="71">
-        <f>IF(C91&gt;0.3,0,IF(C91&gt;0.25,1,IF(C91&gt;0.2,2,IF(C91&gt;0.15,3,IF(C91&gt;0.1,4,5)))))</f>
+      <c r="D91" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="72">
+        <f>IF(C91&gt;0.31,0,IF(C91&gt;=0.26,1,IF(C91&gt;=0.21,2,IF(C91&gt;=0.16,3,IF(C91&gt;=0.11,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F91" s="72"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A92" s="67"/>
-      <c r="B92" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="69">
+      <c r="F91" s="73"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="70">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="E92" s="71">
-        <f>IF(C92&gt;0.25,0,IF(C92&gt;0.2,1,IF(C92&gt;0.15,2,IF(C92&gt;0.1,3,IF(C92&gt;0.05,4,5)))))</f>
+      <c r="D92" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="72">
+        <f>IF(C92&gt;0.26,0,IF(C92&gt;=0.21,1,IF(C92&gt;=0.16,2,IF(C92&gt;=0.11,3,IF(C92&gt;=0.06,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F92" s="72"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A93" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="74">
+      <c r="F92" s="73"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A93" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="77">
         <f>B37/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="71">
-        <f>IF(C93&gt;0.2,5,IF(C93&gt;0.1,3,IF(C93&gt;0.05,1,0)))</f>
+      <c r="D93" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="72">
+        <f>IF(C93&gt;0.2,5,IF(C93&gt;=0.1,3,IF(C93&gt;=0.1,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="72"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A94" s="67"/>
-      <c r="B94" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="F94" s="72"/>
+      <c r="F93" s="73"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="32.4" spans="1:6">
+      <c r="A94" s="68"/>
+      <c r="B94" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="73"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A95" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="62"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="66">
+      <c r="A95" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="63"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="67">
         <f>SUM(E96:E100)/20*25</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A96" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="B96" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="82">
+    <row r="96" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A96" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="85">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="84">
-        <f>IF(C96&gt;0.55,5,IF(C96&gt;0.5,4,IF(C96&gt;0.45,3,IF(C96&gt;0.4,2,IF(C96&gt;0.35,1,0)))))</f>
+      <c r="D96" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="87">
+        <f>IF(C96&gt;=0.55,5,IF(C96&gt;=0.5,4,IF(C96&gt;=0.45,3,IF(C96&gt;=0.4,2,IF(C96&gt;=0.36,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F96" s="85"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A97" s="80"/>
-      <c r="B97" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="82">
+      <c r="F96" s="88"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A97" s="83"/>
+      <c r="B97" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="85">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="84">
-        <f>IF(C97&gt;0.35,1,IF(C97&gt;0.3,2,IF(C97&gt;0.28,3,IF(C97&gt;0.25,3,IF(C97&gt;0.2,5,0)))))</f>
+      <c r="D97" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97" s="87">
+        <f>IF(C97&gt;0.5,1,IF(C97&gt;=0.4,2,IF(C97&gt;=0.35,3,IF(C97&gt;=0.25,4,IF(C97&gt;=0.2,5,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F97" s="85"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A98" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="86">
+      <c r="F97" s="88"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A98" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="89">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="E98" s="84">
-        <f>IF(C98&gt;1,5,IF(C98&gt;0.95,4,IF(C98&gt;0.9,3,IF(C98&gt;0.85,2,IF(C98&gt;0.8,1,0)))))</f>
+      <c r="D98" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="87">
+        <f>IF(C98&gt;=1,5,IF(C98&gt;=0.95,4,IF(C98&gt;=0.9,3,IF(C98&gt;=0.85,2,IF(C98&gt;=0.8,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F98" s="85"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A99" s="80"/>
-      <c r="B99" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="88">
+      <c r="F98" s="88"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="32.4" spans="1:6">
+      <c r="A99" s="83"/>
+      <c r="B99" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="92">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="D99" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="F99" s="85"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A100" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="82">
+      <c r="D99" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="88"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A100" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="85">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="84">
-        <f>IF(C100&gt;0.7,0,IF(C100&gt;0.6,1,IF(C100&gt;0.5,2,IF(C100&gt;0.4,3,IF(C100&gt;0.3,4,5)))))</f>
+      <c r="D100" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="87">
+        <f>IF(C100&gt;=0.8,0,IF(C100&gt;=0.61,1,IF(C100&gt;=0.51,2,IF(C100&gt;=0.41,3,IF(C100&gt;=0.31,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="88"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A101" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="66">
+      <c r="A101" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="63"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="67">
         <f>SUM(E102:E115)/55*15</f>
-        <v>0.818181818181818</v>
-      </c>
-    </row>
-    <row r="102" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A102" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="94">
+        <v>0.545454545454545</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1" ht="96" spans="1:6">
+      <c r="A102" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="99">
         <f>B52/IF(B32=0,1,B32)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" s="96">
-        <f>IF(C102&gt;0.95,5,IF(C102&gt;0.9,4,IF(C102&gt;0.85,3,IF(C102&gt;0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
+      <c r="D102" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="101">
+        <f t="shared" ref="E102:E104" si="0">IF(C102&gt;=0.95,5,IF(C102&gt;=0.9,4,IF(C102&gt;=0.85,3,IF(C102&gt;=0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F102" s="97"/>
-    </row>
-    <row r="103" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A103" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="94">
+      <c r="F102" s="102"/>
+    </row>
+    <row r="103" s="3" customFormat="1" ht="96" spans="1:6">
+      <c r="A103" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="99">
         <f>B57/IF(B56=0,1,B56)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="96">
-        <f>IF(C103&gt;0.95,5,IF(C103&gt;0.9,4,IF(C103&gt;0.85,3,IF(C103&gt;0.8,2,IF(C103&gt;=0.75,1,0)))))</f>
+      <c r="D103" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="101">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F103" s="97"/>
-    </row>
-    <row r="104" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A104" s="92"/>
-      <c r="B104" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="94">
+      <c r="F103" s="102"/>
+    </row>
+    <row r="104" s="3" customFormat="1" ht="96" spans="1:6">
+      <c r="A104" s="97"/>
+      <c r="B104" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="99">
         <f>B59/IF(B58=0,1,B58)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" s="96">
-        <f>IF(C104&gt;0.95,5,IF(C104&gt;0.9,4,IF(C104&gt;0.85,3,IF(C104&gt;0.8,2,IF(C104&gt;=0.75,1,0)))))</f>
+      <c r="D104" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="101">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F104" s="97"/>
-    </row>
-    <row r="105" s="3" customFormat="1" ht="33" spans="1:6">
-      <c r="A105" s="92"/>
-      <c r="B105" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="E105" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="97"/>
-    </row>
-    <row r="106" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A106" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="100">
+      <c r="F104" s="102"/>
+    </row>
+    <row r="105" s="3" customFormat="1" ht="32.4" spans="1:6">
+      <c r="A105" s="97"/>
+      <c r="B105" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="102"/>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="96" spans="1:6">
+      <c r="A106" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="106">
         <f>B60/100</f>
         <v>0</v>
       </c>
-      <c r="D106" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" s="96">
-        <f>IF(C106&gt;1.08,0,IF(C106&gt;1.04,1,IF(C106&gt;1,3,IF(C106&gt;0.96,5,IF(C106&gt;0.92,3,IF(C106&gt;0.88,1,0))))))</f>
+      <c r="D106" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="101">
+        <f>IF(C106&gt;=1.08,0,IF(C106&gt;=1.04,1,IF(C106&gt;=1.01,3,IF(C106&gt;=0.96,5,IF(C106&gt;=0.92,3,IF(C106&gt;=0.88,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F106" s="97"/>
-    </row>
-    <row r="107" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A107" s="92"/>
-      <c r="B107" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="100">
+      <c r="F106" s="102"/>
+    </row>
+    <row r="107" s="3" customFormat="1" ht="96" spans="1:6">
+      <c r="A107" s="97"/>
+      <c r="B107" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="106">
         <f>B51/IF(B34=0,1,B34)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" s="96">
-        <f>IF(C107&gt;0.95,5,IF(C107&gt;0.9,4,IF(C107&gt;0.85,3,IF(C107&gt;0.8,2,IF(C107&gt;=0.75,1,0)))))</f>
+      <c r="D107" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" s="101">
+        <f>IF(C107&gt;=0.96,5,IF(C107&gt;=0.91,4,IF(C107&gt;=0.86,3,IF(C107&gt;=0.81,2,IF(C107&gt;=0.76,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F107" s="97"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A108" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" s="94">
+      <c r="F107" s="102"/>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="97.2" spans="1:6">
+      <c r="A108" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="99">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="96">
-        <f>IF(C108&gt;0.9,5,IF(C108&gt;0.7,4,IF(C108&gt;0.5,3,IF(C108&gt;0.3,2,IF(C108&gt;0.1,1,0)))))</f>
+      <c r="D108" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="101">
+        <f>IF(C108&gt;=0.9,5,IF(C108&gt;=0.7,4,IF(C108&gt;=0.5,3,IF(C108&gt;=0.3,2,IF(C108&gt;=0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="102"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A109" s="92"/>
-      <c r="B109" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="94">
+      <c r="F108" s="108"/>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="64.8" spans="1:6">
+      <c r="A109" s="97"/>
+      <c r="B109" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="99">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="103">
-        <f>IF(C109&gt;0.2,3,IF(C109&gt;0.1,5,IF(C109&gt;=0,1,0)))</f>
+      <c r="D109" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="109">
+        <f>IF(C109&gt;0.2,3,IF(C109&gt;=0.1,5,IF(C109&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="102"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A110" s="92"/>
-      <c r="B110" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="94">
+      <c r="F109" s="108"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="32.4" spans="1:6">
+      <c r="A110" s="97"/>
+      <c r="B110" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="99">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D110" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F110" s="102"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A111" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="94">
+      <c r="D110" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="108"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A111" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="99">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
-      <c r="D111" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="96">
-        <f>IF(C111&gt;0.05,0,IF(C111&gt;0,1,IF(C111&gt;-0.1,2,IF(C111&gt;-0.2,3,IF(C111&gt;-0.3,4,5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F111" s="102"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A112" s="92"/>
-      <c r="B112" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="94">
+      <c r="D111" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="E111" s="101">
+        <f>IF(C111&gt;=6,0,IF(C111&gt;=0,1,IF(C111&gt;=-0.04,2,IF(C111&gt;=-0.09,3,IF(C111&gt;=-0.14,4,5)))))</f>
+        <v>1</v>
+      </c>
+      <c r="F111" s="108"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="96" spans="1:6">
+      <c r="A112" s="97"/>
+      <c r="B112" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="99">
         <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="96">
-        <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
+      <c r="D112" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="E112" s="101">
+        <f>IF(C112&gt;=0.95,5,IF(C112&gt;=0.9,4,IF(C112&gt;=0.85,3,IF(C112&gt;=0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F112" s="102"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A113" s="92"/>
-      <c r="B113" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="104">
+      <c r="F112" s="108"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="63.6" spans="1:6">
+      <c r="A113" s="97"/>
+      <c r="B113" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="112">
         <f>B46/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D113" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" s="105">
-        <f>IF(C113&gt;0.15,5,IF(C113&gt;0.1,3,IF(C113&gt;0.05,1,0)))</f>
+      <c r="D113" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E113" s="113">
+        <f>IF(C113&gt;=0.08,5,IF(C113&gt;=0.06,3,IF(C113&gt;=0.04,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F113" s="102"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A114" s="92"/>
-      <c r="B114" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="94">
+      <c r="F113" s="108"/>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="96" spans="1:6">
+      <c r="A114" s="97"/>
+      <c r="B114" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="99">
         <f>B45/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E114" s="96">
-        <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
+      <c r="D114" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" s="101">
+        <f>IF(C114&gt;=0.95,5,IF(C114&gt;=0.9,4,IF(C114&gt;=0.85,3,IF(C114&gt;=0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F114" s="102"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A115" s="92"/>
-      <c r="B115" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="104">
+      <c r="F114" s="108"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="32.4" spans="1:6">
+      <c r="A115" s="97"/>
+      <c r="B115" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="112">
         <f>B47</f>
         <v>0</v>
       </c>
-      <c r="D115" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F115" s="102"/>
+      <c r="D115" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F115" s="108"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A116" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="90"/>
-      <c r="E116" s="91"/>
-      <c r="F116" s="66">
+      <c r="A116" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="63"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="114"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="67">
         <f>SUM(E117:E124)/35*10</f>
         <v>7.71428571428571</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A117" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" s="108">
+    <row r="117" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A117" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="117">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="E117" s="110">
-        <f>IF(C117&gt;5,0,IF(C117&gt;3,3,IF(C117&gt;1,4,5)))</f>
+      <c r="D117" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" s="119">
+        <f>IF(C117&gt;6,0,IF(C117&gt;=4,3,IF(C117&gt;=1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="111"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A118" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="B118" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="113">
+      <c r="F117" s="120"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A118" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="122">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="114" t="s">
-        <v>165</v>
-      </c>
-      <c r="E118" s="110">
-        <f>IF(C118&gt;0.3,0,IF(C118&gt;0.2,1,IF(C118&gt;0.1,3,5)))</f>
+      <c r="D118" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="119">
+        <f>IF(C118&gt;0.31,0,IF(C118&gt;=0.21,1,IF(C118&gt;=0.11,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="111"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A119" s="112"/>
-      <c r="B119" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="C119" s="113">
+      <c r="F118" s="120"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A119" s="121"/>
+      <c r="B119" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="122">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="E119" s="110">
-        <f>IF(C119&gt;0.6,1,IF(C119&gt;0.2,3,5))</f>
+      <c r="D119" s="118" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="119">
+        <f>IF(C119&gt;=0.61,1,IF(C119&gt;=0.21,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="111"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A120" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="B120" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" s="116">
+      <c r="F119" s="120"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A120" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="126">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="E120" s="110">
-        <f>IF(C120&gt;0.15,0,IF(C120&gt;0.1,1,IF(C120&gt;0.05,3,5)))</f>
+      <c r="D120" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="119">
+        <f>IF(C120&gt;0.16,0,IF(C120&gt;=0.11,1,IF(C120&gt;=0.06,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="111"/>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A121" s="115"/>
-      <c r="B121" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="C121" s="116">
+      <c r="F120" s="120"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="64.8" spans="1:6">
+      <c r="A121" s="124"/>
+      <c r="B121" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="126">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="114" t="s">
-        <v>172</v>
-      </c>
-      <c r="E121" s="110">
-        <f>IF(C121&gt;1,5,IF(C121&gt;0.8,3,1))</f>
+      <c r="D121" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="119">
+        <f>IF(C121&gt;=1,5,IF(C121&gt;=0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="111"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A122" s="115"/>
-      <c r="B122" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="108">
+      <c r="F121" s="120"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="64.8" spans="1:6">
+      <c r="A122" s="124"/>
+      <c r="B122" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="117">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="114" t="s">
-        <v>172</v>
-      </c>
-      <c r="E122" s="110">
-        <f>IF(C122&gt;1,5,IF(C122&gt;0.8,3,1))</f>
+      <c r="D122" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="119">
+        <f>IF(C122&gt;=1,5,IF(C122&gt;=0.81,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="111"/>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A123" s="115"/>
-      <c r="B123" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" s="108"/>
-      <c r="D123" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="F123" s="111"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A124" s="117" t="s">
-        <v>175</v>
-      </c>
-      <c r="B124" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" s="119">
+      <c r="F122" s="120"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="32.4" hidden="1" spans="1:6">
+      <c r="A123" s="124"/>
+      <c r="B123" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="117"/>
+      <c r="D123" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="F123" s="120"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A124" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="129">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="E124" s="110">
-        <f>IF(C124&gt;0.3,0,IF(C124&gt;0.2,1,IF(C124&gt;0.1,3,5)))</f>
+      <c r="D124" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="119">
+        <f>IF(C124&gt;0.31,0,IF(C124&gt;=0.21,1,IF(C124&gt;=0.11,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="111"/>
+      <c r="F124" s="120"/>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:6">
       <c r="A125" s="4"/>
-      <c r="B125" s="121"/>
-      <c r="C125" s="122"/>
-      <c r="D125" s="123"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="125"/>
+      <c r="B125" s="130"/>
+      <c r="C125" s="131"/>
+      <c r="D125" s="132"/>
+      <c r="E125" s="133"/>
+      <c r="F125" s="134"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:6">
       <c r="A126" s="4"/>
-      <c r="B126" s="121"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="123"/>
-      <c r="E126" s="124"/>
-      <c r="F126" s="125"/>
+      <c r="B126" s="130"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="132"/>
+      <c r="E126" s="133"/>
+      <c r="F126" s="134"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
-      <c r="B127" s="121"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="123"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="125"/>
+      <c r="B127" s="130"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="132"/>
+      <c r="E127" s="133"/>
+      <c r="F127" s="134"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:6">
       <c r="A128" s="4"/>
-      <c r="B128" s="121"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="123"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="125"/>
+      <c r="B128" s="130"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="132"/>
+      <c r="E128" s="133"/>
+      <c r="F128" s="134"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:6">
       <c r="A129" s="4"/>
-      <c r="B129" s="121"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="123"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="125"/>
+      <c r="B129" s="130"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="132"/>
+      <c r="E129" s="133"/>
+      <c r="F129" s="134"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:6">
       <c r="A130" s="4"/>
-      <c r="B130" s="121"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="123"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="125"/>
+      <c r="B130" s="130"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="132"/>
+      <c r="E130" s="133"/>
+      <c r="F130" s="134"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:6">
       <c r="A131" s="4"/>
-      <c r="B131" s="121"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="123"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="125"/>
+      <c r="B131" s="130"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="132"/>
+      <c r="E131" s="133"/>
+      <c r="F131" s="134"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:6">
       <c r="A132" s="4"/>
-      <c r="B132" s="121"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="123"/>
-      <c r="E132" s="124"/>
-      <c r="F132" s="125"/>
+      <c r="B132" s="130"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="132"/>
+      <c r="E132" s="133"/>
+      <c r="F132" s="134"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:6">
       <c r="A133" s="4"/>
-      <c r="B133" s="121"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="123"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="125"/>
+      <c r="B133" s="130"/>
+      <c r="C133" s="131"/>
+      <c r="D133" s="132"/>
+      <c r="E133" s="133"/>
+      <c r="F133" s="134"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:6">
       <c r="A134" s="4"/>
-      <c r="B134" s="121"/>
-      <c r="C134" s="122"/>
-      <c r="D134" s="123"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="125"/>
+      <c r="B134" s="130"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="132"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="134"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:6">
       <c r="A135" s="4"/>
-      <c r="B135" s="121"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="123"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="125"/>
+      <c r="B135" s="130"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="133"/>
+      <c r="F135" s="134"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:6">
       <c r="A136" s="4"/>
-      <c r="B136" s="121"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="125"/>
+      <c r="B136" s="130"/>
+      <c r="C136" s="131"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="134"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:6">
       <c r="A137" s="4"/>
-      <c r="B137" s="121"/>
-      <c r="C137" s="122"/>
-      <c r="D137" s="123"/>
-      <c r="E137" s="124"/>
-      <c r="F137" s="125"/>
+      <c r="B137" s="130"/>
+      <c r="C137" s="131"/>
+      <c r="D137" s="132"/>
+      <c r="E137" s="133"/>
+      <c r="F137" s="134"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:6">
       <c r="A138" s="4"/>
-      <c r="B138" s="121"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="123"/>
-      <c r="E138" s="124"/>
-      <c r="F138" s="125"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="132"/>
+      <c r="E138" s="133"/>
+      <c r="F138" s="134"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:6">
       <c r="A139" s="4"/>
-      <c r="B139" s="121"/>
-      <c r="C139" s="122"/>
-      <c r="D139" s="123"/>
-      <c r="E139" s="124"/>
-      <c r="F139" s="125"/>
+      <c r="B139" s="130"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="132"/>
+      <c r="E139" s="133"/>
+      <c r="F139" s="134"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:6">
       <c r="A140" s="4"/>
-      <c r="B140" s="121"/>
-      <c r="C140" s="122"/>
-      <c r="D140" s="123"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="125"/>
+      <c r="B140" s="130"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="132"/>
+      <c r="E140" s="133"/>
+      <c r="F140" s="134"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4"/>
-      <c r="B141" s="121"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="123"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="125"/>
+      <c r="B141" s="130"/>
+      <c r="C141" s="131"/>
+      <c r="D141" s="132"/>
+      <c r="E141" s="133"/>
+      <c r="F141" s="134"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4"/>
-      <c r="B142" s="121"/>
-      <c r="C142" s="122"/>
-      <c r="D142" s="123"/>
-      <c r="E142" s="124"/>
-      <c r="F142" s="125"/>
+      <c r="B142" s="130"/>
+      <c r="C142" s="131"/>
+      <c r="D142" s="132"/>
+      <c r="E142" s="133"/>
+      <c r="F142" s="134"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4"/>
-      <c r="B143" s="121"/>
-      <c r="C143" s="122"/>
-      <c r="D143" s="123"/>
-      <c r="E143" s="124"/>
-      <c r="F143" s="125"/>
+      <c r="B143" s="130"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="132"/>
+      <c r="E143" s="133"/>
+      <c r="F143" s="134"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4"/>
-      <c r="B144" s="121"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="123"/>
-      <c r="E144" s="124"/>
-      <c r="F144" s="125"/>
+      <c r="B144" s="130"/>
+      <c r="C144" s="131"/>
+      <c r="D144" s="132"/>
+      <c r="E144" s="133"/>
+      <c r="F144" s="134"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4"/>
-      <c r="B145" s="121"/>
-      <c r="C145" s="122"/>
-      <c r="D145" s="123"/>
-      <c r="E145" s="124"/>
-      <c r="F145" s="125"/>
+      <c r="B145" s="130"/>
+      <c r="C145" s="131"/>
+      <c r="D145" s="132"/>
+      <c r="E145" s="133"/>
+      <c r="F145" s="134"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:6">
       <c r="A146" s="4"/>
-      <c r="B146" s="121"/>
-      <c r="C146" s="122"/>
-      <c r="D146" s="123"/>
-      <c r="E146" s="124"/>
-      <c r="F146" s="125"/>
+      <c r="B146" s="130"/>
+      <c r="C146" s="131"/>
+      <c r="D146" s="132"/>
+      <c r="E146" s="133"/>
+      <c r="F146" s="134"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:6">
       <c r="A147" s="4"/>
-      <c r="B147" s="121"/>
-      <c r="C147" s="122"/>
-      <c r="D147" s="123"/>
-      <c r="E147" s="124"/>
-      <c r="F147" s="125"/>
+      <c r="B147" s="130"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="132"/>
+      <c r="E147" s="133"/>
+      <c r="F147" s="134"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:6">
       <c r="A148" s="4"/>
-      <c r="B148" s="121"/>
-      <c r="C148" s="122"/>
-      <c r="D148" s="123"/>
-      <c r="E148" s="124"/>
-      <c r="F148" s="125"/>
+      <c r="B148" s="130"/>
+      <c r="C148" s="131"/>
+      <c r="D148" s="132"/>
+      <c r="E148" s="133"/>
+      <c r="F148" s="134"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:6">
       <c r="A149" s="4"/>
-      <c r="B149" s="121"/>
-      <c r="C149" s="122"/>
-      <c r="D149" s="123"/>
-      <c r="E149" s="124"/>
-      <c r="F149" s="125"/>
+      <c r="B149" s="130"/>
+      <c r="C149" s="131"/>
+      <c r="D149" s="132"/>
+      <c r="E149" s="133"/>
+      <c r="F149" s="134"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:6">
       <c r="A150" s="4"/>
-      <c r="B150" s="121"/>
-      <c r="C150" s="122"/>
-      <c r="D150" s="123"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="125"/>
+      <c r="B150" s="130"/>
+      <c r="C150" s="131"/>
+      <c r="D150" s="132"/>
+      <c r="E150" s="133"/>
+      <c r="F150" s="134"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:6">
       <c r="A151" s="4"/>
-      <c r="B151" s="121"/>
-      <c r="C151" s="122"/>
-      <c r="D151" s="123"/>
-      <c r="E151" s="124"/>
-      <c r="F151" s="125"/>
+      <c r="B151" s="130"/>
+      <c r="C151" s="131"/>
+      <c r="D151" s="132"/>
+      <c r="E151" s="133"/>
+      <c r="F151" s="134"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:6">
       <c r="A152" s="4"/>
-      <c r="B152" s="121"/>
-      <c r="C152" s="122"/>
-      <c r="D152" s="123"/>
-      <c r="E152" s="124"/>
-      <c r="F152" s="125"/>
+      <c r="B152" s="130"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="132"/>
+      <c r="E152" s="133"/>
+      <c r="F152" s="134"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:6">
       <c r="A153" s="4"/>
-      <c r="B153" s="121"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="123"/>
-      <c r="E153" s="124"/>
-      <c r="F153" s="125"/>
+      <c r="B153" s="130"/>
+      <c r="C153" s="131"/>
+      <c r="D153" s="132"/>
+      <c r="E153" s="133"/>
+      <c r="F153" s="134"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:6">
       <c r="A154" s="4"/>
-      <c r="B154" s="121"/>
-      <c r="C154" s="122"/>
-      <c r="D154" s="123"/>
-      <c r="E154" s="124"/>
-      <c r="F154" s="125"/>
+      <c r="B154" s="130"/>
+      <c r="C154" s="131"/>
+      <c r="D154" s="132"/>
+      <c r="E154" s="133"/>
+      <c r="F154" s="134"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:6">
       <c r="A155" s="4"/>
-      <c r="B155" s="121"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="123"/>
-      <c r="E155" s="124"/>
-      <c r="F155" s="125"/>
+      <c r="B155" s="130"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="133"/>
+      <c r="F155" s="134"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="4"/>
-      <c r="B156" s="121"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="123"/>
-      <c r="E156" s="124"/>
-      <c r="F156" s="125"/>
+      <c r="B156" s="130"/>
+      <c r="C156" s="131"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="133"/>
+      <c r="F156" s="134"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
-      <c r="B157" s="121"/>
-      <c r="C157" s="122"/>
-      <c r="D157" s="123"/>
-      <c r="E157" s="124"/>
-      <c r="F157" s="125"/>
+      <c r="B157" s="130"/>
+      <c r="C157" s="131"/>
+      <c r="D157" s="132"/>
+      <c r="E157" s="133"/>
+      <c r="F157" s="134"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="126"/>
-      <c r="C158" s="127"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="129"/>
+      <c r="B158" s="135"/>
+      <c r="C158" s="136"/>
+      <c r="D158" s="137"/>
+      <c r="E158" s="138"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="126"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="129"/>
+      <c r="B159" s="135"/>
+      <c r="C159" s="136"/>
+      <c r="D159" s="137"/>
+      <c r="E159" s="138"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="126"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="129"/>
+      <c r="B160" s="135"/>
+      <c r="C160" s="136"/>
+      <c r="D160" s="137"/>
+      <c r="E160" s="138"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="126"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="129"/>
+      <c r="B161" s="135"/>
+      <c r="C161" s="136"/>
+      <c r="D161" s="137"/>
+      <c r="E161" s="138"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="126"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="129"/>
+      <c r="B162" s="135"/>
+      <c r="C162" s="136"/>
+      <c r="D162" s="137"/>
+      <c r="E162" s="138"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="126"/>
-      <c r="C163" s="127"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="129"/>
+      <c r="B163" s="135"/>
+      <c r="C163" s="136"/>
+      <c r="D163" s="137"/>
+      <c r="E163" s="138"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="126"/>
-      <c r="C164" s="127"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="129"/>
+      <c r="B164" s="135"/>
+      <c r="C164" s="136"/>
+      <c r="D164" s="137"/>
+      <c r="E164" s="138"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="126"/>
-      <c r="C165" s="127"/>
-      <c r="D165" s="128"/>
-      <c r="E165" s="129"/>
+      <c r="B165" s="135"/>
+      <c r="C165" s="136"/>
+      <c r="D165" s="137"/>
+      <c r="E165" s="138"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="126"/>
-      <c r="C166" s="127"/>
-      <c r="D166" s="128"/>
-      <c r="E166" s="129"/>
+      <c r="B166" s="135"/>
+      <c r="C166" s="136"/>
+      <c r="D166" s="137"/>
+      <c r="E166" s="138"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="126"/>
-      <c r="C167" s="127"/>
-      <c r="D167" s="128"/>
-      <c r="E167" s="129"/>
+      <c r="B167" s="135"/>
+      <c r="C167" s="136"/>
+      <c r="D167" s="137"/>
+      <c r="E167" s="138"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="126"/>
-      <c r="C168" s="127"/>
-      <c r="D168" s="128"/>
-      <c r="E168" s="129"/>
+      <c r="B168" s="135"/>
+      <c r="C168" s="136"/>
+      <c r="D168" s="137"/>
+      <c r="E168" s="138"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="126"/>
-      <c r="C169" s="127"/>
-      <c r="D169" s="128"/>
-      <c r="E169" s="129"/>
+      <c r="B169" s="135"/>
+      <c r="C169" s="136"/>
+      <c r="D169" s="137"/>
+      <c r="E169" s="138"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="126"/>
-      <c r="C170" s="127"/>
-      <c r="D170" s="128"/>
-      <c r="E170" s="129"/>
+      <c r="B170" s="135"/>
+      <c r="C170" s="136"/>
+      <c r="D170" s="137"/>
+      <c r="E170" s="138"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="126"/>
-      <c r="C171" s="127"/>
-      <c r="D171" s="128"/>
-      <c r="E171" s="129"/>
+      <c r="B171" s="135"/>
+      <c r="C171" s="136"/>
+      <c r="D171" s="137"/>
+      <c r="E171" s="138"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="126"/>
-      <c r="C172" s="127"/>
-      <c r="D172" s="128"/>
-      <c r="E172" s="129"/>
+      <c r="B172" s="135"/>
+      <c r="C172" s="136"/>
+      <c r="D172" s="137"/>
+      <c r="E172" s="138"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="126"/>
-      <c r="C173" s="127"/>
-      <c r="D173" s="128"/>
-      <c r="E173" s="129"/>
+      <c r="B173" s="135"/>
+      <c r="C173" s="136"/>
+      <c r="D173" s="137"/>
+      <c r="E173" s="138"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="126"/>
-      <c r="C174" s="127"/>
-      <c r="D174" s="128"/>
-      <c r="E174" s="129"/>
+      <c r="B174" s="135"/>
+      <c r="C174" s="136"/>
+      <c r="D174" s="137"/>
+      <c r="E174" s="138"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="126"/>
-      <c r="C175" s="127"/>
-      <c r="D175" s="128"/>
-      <c r="E175" s="129"/>
+      <c r="B175" s="135"/>
+      <c r="C175" s="136"/>
+      <c r="D175" s="137"/>
+      <c r="E175" s="138"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="126"/>
-      <c r="C176" s="127"/>
-      <c r="D176" s="128"/>
-      <c r="E176" s="129"/>
+      <c r="B176" s="135"/>
+      <c r="C176" s="136"/>
+      <c r="D176" s="137"/>
+      <c r="E176" s="138"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="126"/>
-      <c r="C177" s="127"/>
-      <c r="D177" s="128"/>
-      <c r="E177" s="129"/>
+      <c r="B177" s="135"/>
+      <c r="C177" s="136"/>
+      <c r="D177" s="137"/>
+      <c r="E177" s="138"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="126"/>
-      <c r="C178" s="127"/>
-      <c r="D178" s="128"/>
-      <c r="E178" s="129"/>
+      <c r="B178" s="135"/>
+      <c r="C178" s="136"/>
+      <c r="D178" s="137"/>
+      <c r="E178" s="138"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="126"/>
-      <c r="C179" s="127"/>
-      <c r="D179" s="128"/>
-      <c r="E179" s="129"/>
+      <c r="B179" s="135"/>
+      <c r="C179" s="136"/>
+      <c r="D179" s="137"/>
+      <c r="E179" s="138"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="126"/>
-      <c r="C180" s="127"/>
-      <c r="D180" s="128"/>
-      <c r="E180" s="129"/>
+      <c r="B180" s="135"/>
+      <c r="C180" s="136"/>
+      <c r="D180" s="137"/>
+      <c r="E180" s="138"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="126"/>
-      <c r="C181" s="127"/>
-      <c r="D181" s="128"/>
-      <c r="E181" s="129"/>
+      <c r="B181" s="135"/>
+      <c r="C181" s="136"/>
+      <c r="D181" s="137"/>
+      <c r="E181" s="138"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="126"/>
-      <c r="C182" s="127"/>
-      <c r="D182" s="128"/>
-      <c r="E182" s="129"/>
+      <c r="B182" s="135"/>
+      <c r="C182" s="136"/>
+      <c r="D182" s="137"/>
+      <c r="E182" s="138"/>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="126"/>
-      <c r="C183" s="127"/>
-      <c r="D183" s="128"/>
-      <c r="E183" s="129"/>
+      <c r="B183" s="135"/>
+      <c r="C183" s="136"/>
+      <c r="D183" s="137"/>
+      <c r="E183" s="138"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="126"/>
-      <c r="C184" s="127"/>
-      <c r="D184" s="128"/>
-      <c r="E184" s="129"/>
+      <c r="B184" s="135"/>
+      <c r="C184" s="136"/>
+      <c r="D184" s="137"/>
+      <c r="E184" s="138"/>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="126"/>
-      <c r="C185" s="127"/>
-      <c r="D185" s="128"/>
-      <c r="E185" s="129"/>
+      <c r="B185" s="135"/>
+      <c r="C185" s="136"/>
+      <c r="D185" s="137"/>
+      <c r="E185" s="138"/>
     </row>
     <row r="186" spans="2:5">
-      <c r="B186" s="126"/>
-      <c r="C186" s="127"/>
-      <c r="D186" s="128"/>
-      <c r="E186" s="129"/>
+      <c r="B186" s="135"/>
+      <c r="C186" s="136"/>
+      <c r="D186" s="137"/>
+      <c r="E186" s="138"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="126"/>
-      <c r="C187" s="127"/>
-      <c r="D187" s="128"/>
-      <c r="E187" s="129"/>
+      <c r="B187" s="135"/>
+      <c r="C187" s="136"/>
+      <c r="D187" s="137"/>
+      <c r="E187" s="138"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="126"/>
-      <c r="C188" s="127"/>
-      <c r="D188" s="128"/>
-      <c r="E188" s="129"/>
+      <c r="B188" s="135"/>
+      <c r="C188" s="136"/>
+      <c r="D188" s="137"/>
+      <c r="E188" s="138"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="126"/>
-      <c r="C189" s="127"/>
-      <c r="D189" s="128"/>
-      <c r="E189" s="129"/>
+      <c r="B189" s="135"/>
+      <c r="C189" s="136"/>
+      <c r="D189" s="137"/>
+      <c r="E189" s="138"/>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="126"/>
-      <c r="C190" s="127"/>
-      <c r="D190" s="128"/>
-      <c r="E190" s="129"/>
+      <c r="B190" s="135"/>
+      <c r="C190" s="136"/>
+      <c r="D190" s="137"/>
+      <c r="E190" s="138"/>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="126"/>
-      <c r="C191" s="127"/>
-      <c r="D191" s="128"/>
-      <c r="E191" s="129"/>
+      <c r="B191" s="135"/>
+      <c r="C191" s="136"/>
+      <c r="D191" s="137"/>
+      <c r="E191" s="138"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="126"/>
-      <c r="C192" s="127"/>
-      <c r="D192" s="128"/>
-      <c r="E192" s="129"/>
+      <c r="B192" s="135"/>
+      <c r="C192" s="136"/>
+      <c r="D192" s="137"/>
+      <c r="E192" s="138"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="126"/>
-      <c r="C193" s="127"/>
-      <c r="D193" s="128"/>
-      <c r="E193" s="129"/>
+      <c r="B193" s="135"/>
+      <c r="C193" s="136"/>
+      <c r="D193" s="137"/>
+      <c r="E193" s="138"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="126"/>
-      <c r="C194" s="127"/>
-      <c r="D194" s="128"/>
-      <c r="E194" s="129"/>
+      <c r="B194" s="135"/>
+      <c r="C194" s="136"/>
+      <c r="D194" s="137"/>
+      <c r="E194" s="138"/>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="126"/>
-      <c r="C195" s="127"/>
-      <c r="D195" s="128"/>
-      <c r="E195" s="129"/>
+      <c r="B195" s="135"/>
+      <c r="C195" s="136"/>
+      <c r="D195" s="137"/>
+      <c r="E195" s="138"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="126"/>
-      <c r="C196" s="127"/>
-      <c r="D196" s="128"/>
-      <c r="E196" s="129"/>
+      <c r="B196" s="135"/>
+      <c r="C196" s="136"/>
+      <c r="D196" s="137"/>
+      <c r="E196" s="138"/>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="126"/>
-      <c r="C197" s="127"/>
-      <c r="D197" s="128"/>
-      <c r="E197" s="129"/>
+      <c r="B197" s="135"/>
+      <c r="C197" s="136"/>
+      <c r="D197" s="137"/>
+      <c r="E197" s="138"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="126"/>
-      <c r="C198" s="127"/>
-      <c r="D198" s="128"/>
-      <c r="E198" s="129"/>
+      <c r="B198" s="135"/>
+      <c r="C198" s="136"/>
+      <c r="D198" s="137"/>
+      <c r="E198" s="138"/>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="126"/>
-      <c r="C199" s="127"/>
-      <c r="D199" s="128"/>
-      <c r="E199" s="129"/>
+      <c r="B199" s="135"/>
+      <c r="C199" s="136"/>
+      <c r="D199" s="137"/>
+      <c r="E199" s="138"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="126"/>
-      <c r="C200" s="127"/>
-      <c r="D200" s="128"/>
-      <c r="E200" s="129"/>
+      <c r="B200" s="135"/>
+      <c r="C200" s="136"/>
+      <c r="D200" s="137"/>
+      <c r="E200" s="138"/>
     </row>
     <row r="201" spans="2:5">
-      <c r="B201" s="126"/>
-      <c r="C201" s="127"/>
-      <c r="D201" s="128"/>
-      <c r="E201" s="129"/>
+      <c r="B201" s="135"/>
+      <c r="C201" s="136"/>
+      <c r="D201" s="137"/>
+      <c r="E201" s="138"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="126"/>
-      <c r="C202" s="127"/>
-      <c r="D202" s="128"/>
-      <c r="E202" s="129"/>
+      <c r="B202" s="135"/>
+      <c r="C202" s="136"/>
+      <c r="D202" s="137"/>
+      <c r="E202" s="138"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="126"/>
-      <c r="C203" s="127"/>
-      <c r="D203" s="128"/>
-      <c r="E203" s="129"/>
+      <c r="B203" s="135"/>
+      <c r="C203" s="136"/>
+      <c r="D203" s="137"/>
+      <c r="E203" s="138"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="126"/>
-      <c r="C204" s="127"/>
-      <c r="D204" s="128"/>
-      <c r="E204" s="129"/>
+      <c r="B204" s="135"/>
+      <c r="C204" s="136"/>
+      <c r="D204" s="137"/>
+      <c r="E204" s="138"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="126"/>
-      <c r="C205" s="127"/>
-      <c r="D205" s="128"/>
-      <c r="E205" s="129"/>
+      <c r="B205" s="135"/>
+      <c r="C205" s="136"/>
+      <c r="D205" s="137"/>
+      <c r="E205" s="138"/>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="126"/>
-      <c r="C206" s="127"/>
-      <c r="D206" s="128"/>
-      <c r="E206" s="129"/>
+      <c r="B206" s="135"/>
+      <c r="C206" s="136"/>
+      <c r="D206" s="137"/>
+      <c r="E206" s="138"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="126"/>
-      <c r="C207" s="127"/>
-      <c r="D207" s="128"/>
-      <c r="E207" s="129"/>
+      <c r="B207" s="135"/>
+      <c r="C207" s="136"/>
+      <c r="D207" s="137"/>
+      <c r="E207" s="138"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="126"/>
-      <c r="C208" s="127"/>
-      <c r="D208" s="128"/>
-      <c r="E208" s="129"/>
+      <c r="B208" s="135"/>
+      <c r="C208" s="136"/>
+      <c r="D208" s="137"/>
+      <c r="E208" s="138"/>
     </row>
     <row r="209" spans="2:5">
-      <c r="B209" s="126"/>
-      <c r="C209" s="127"/>
-      <c r="D209" s="128"/>
-      <c r="E209" s="129"/>
+      <c r="B209" s="135"/>
+      <c r="C209" s="136"/>
+      <c r="D209" s="137"/>
+      <c r="E209" s="138"/>
     </row>
     <row r="210" spans="2:5">
-      <c r="B210" s="126"/>
-      <c r="C210" s="127"/>
-      <c r="D210" s="128"/>
-      <c r="E210" s="129"/>
+      <c r="B210" s="135"/>
+      <c r="C210" s="136"/>
+      <c r="D210" s="137"/>
+      <c r="E210" s="138"/>
     </row>
     <row r="211" spans="2:5">
-      <c r="B211" s="126"/>
-      <c r="C211" s="127"/>
-      <c r="D211" s="128"/>
-      <c r="E211" s="129"/>
+      <c r="B211" s="135"/>
+      <c r="C211" s="136"/>
+      <c r="D211" s="137"/>
+      <c r="E211" s="138"/>
     </row>
     <row r="212" spans="2:5">
-      <c r="B212" s="126"/>
-      <c r="C212" s="127"/>
-      <c r="D212" s="128"/>
-      <c r="E212" s="129"/>
+      <c r="B212" s="135"/>
+      <c r="C212" s="136"/>
+      <c r="D212" s="137"/>
+      <c r="E212" s="138"/>
     </row>
     <row r="213" spans="2:5">
-      <c r="B213" s="126"/>
-      <c r="C213" s="127"/>
-      <c r="D213" s="128"/>
-      <c r="E213" s="129"/>
+      <c r="B213" s="135"/>
+      <c r="C213" s="136"/>
+      <c r="D213" s="137"/>
+      <c r="E213" s="138"/>
     </row>
     <row r="214" spans="2:5">
-      <c r="B214" s="126"/>
-      <c r="C214" s="127"/>
-      <c r="D214" s="128"/>
-      <c r="E214" s="129"/>
+      <c r="B214" s="135"/>
+      <c r="C214" s="136"/>
+      <c r="D214" s="137"/>
+      <c r="E214" s="138"/>
     </row>
     <row r="215" spans="2:5">
-      <c r="B215" s="126"/>
-      <c r="C215" s="127"/>
-      <c r="D215" s="128"/>
-      <c r="E215" s="129"/>
+      <c r="B215" s="135"/>
+      <c r="C215" s="136"/>
+      <c r="D215" s="137"/>
+      <c r="E215" s="138"/>
     </row>
     <row r="216" spans="2:5">
-      <c r="B216" s="126"/>
-      <c r="C216" s="127"/>
-      <c r="D216" s="128"/>
-      <c r="E216" s="129"/>
+      <c r="B216" s="135"/>
+      <c r="C216" s="136"/>
+      <c r="D216" s="137"/>
+      <c r="E216" s="138"/>
     </row>
     <row r="217" spans="2:5">
-      <c r="B217" s="126"/>
-      <c r="C217" s="127"/>
-      <c r="D217" s="128"/>
-      <c r="E217" s="129"/>
+      <c r="B217" s="135"/>
+      <c r="C217" s="136"/>
+      <c r="D217" s="137"/>
+      <c r="E217" s="138"/>
     </row>
     <row r="218" spans="2:5">
-      <c r="B218" s="126"/>
-      <c r="C218" s="127"/>
-      <c r="D218" s="128"/>
-      <c r="E218" s="129"/>
+      <c r="B218" s="135"/>
+      <c r="C218" s="136"/>
+      <c r="D218" s="137"/>
+      <c r="E218" s="138"/>
     </row>
     <row r="219" spans="2:5">
-      <c r="B219" s="126"/>
-      <c r="C219" s="127"/>
-      <c r="D219" s="128"/>
-      <c r="E219" s="129"/>
+      <c r="B219" s="135"/>
+      <c r="C219" s="136"/>
+      <c r="D219" s="137"/>
+      <c r="E219" s="138"/>
     </row>
     <row r="220" spans="2:5">
-      <c r="B220" s="126"/>
-      <c r="C220" s="127"/>
-      <c r="D220" s="128"/>
-      <c r="E220" s="129"/>
+      <c r="B220" s="135"/>
+      <c r="C220" s="136"/>
+      <c r="D220" s="137"/>
+      <c r="E220" s="138"/>
     </row>
     <row r="221" spans="2:5">
-      <c r="B221" s="126"/>
-      <c r="C221" s="127"/>
-      <c r="D221" s="128"/>
-      <c r="E221" s="129"/>
+      <c r="B221" s="135"/>
+      <c r="C221" s="136"/>
+      <c r="D221" s="137"/>
+      <c r="E221" s="138"/>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="126"/>
-      <c r="C222" s="127"/>
-      <c r="D222" s="128"/>
-      <c r="E222" s="129"/>
+      <c r="B222" s="135"/>
+      <c r="C222" s="136"/>
+      <c r="D222" s="137"/>
+      <c r="E222" s="138"/>
     </row>
     <row r="223" spans="2:5">
-      <c r="B223" s="126"/>
-      <c r="C223" s="127"/>
-      <c r="D223" s="128"/>
-      <c r="E223" s="129"/>
+      <c r="B223" s="135"/>
+      <c r="C223" s="136"/>
+      <c r="D223" s="137"/>
+      <c r="E223" s="138"/>
     </row>
     <row r="224" spans="2:5">
-      <c r="B224" s="126"/>
-      <c r="C224" s="127"/>
-      <c r="D224" s="128"/>
-      <c r="E224" s="129"/>
+      <c r="B224" s="135"/>
+      <c r="C224" s="136"/>
+      <c r="D224" s="137"/>
+      <c r="E224" s="138"/>
     </row>
     <row r="225" spans="2:5">
-      <c r="B225" s="126"/>
-      <c r="C225" s="127"/>
-      <c r="D225" s="128"/>
-      <c r="E225" s="129"/>
+      <c r="B225" s="135"/>
+      <c r="C225" s="136"/>
+      <c r="D225" s="137"/>
+      <c r="E225" s="138"/>
     </row>
     <row r="226" spans="2:5">
-      <c r="B226" s="126"/>
-      <c r="C226" s="127"/>
-      <c r="D226" s="128"/>
-      <c r="E226" s="129"/>
+      <c r="B226" s="135"/>
+      <c r="C226" s="136"/>
+      <c r="D226" s="137"/>
+      <c r="E226" s="138"/>
     </row>
     <row r="227" spans="2:5">
-      <c r="B227" s="126"/>
-      <c r="C227" s="127"/>
-      <c r="D227" s="128"/>
-      <c r="E227" s="129"/>
+      <c r="B227" s="135"/>
+      <c r="C227" s="136"/>
+      <c r="D227" s="137"/>
+      <c r="E227" s="138"/>
     </row>
     <row r="228" spans="2:5">
-      <c r="B228" s="126"/>
-      <c r="C228" s="127"/>
-      <c r="D228" s="128"/>
-      <c r="E228" s="129"/>
+      <c r="B228" s="135"/>
+      <c r="C228" s="136"/>
+      <c r="D228" s="137"/>
+      <c r="E228" s="138"/>
     </row>
     <row r="229" spans="2:5">
-      <c r="B229" s="126"/>
-      <c r="C229" s="127"/>
-      <c r="D229" s="128"/>
-      <c r="E229" s="129"/>
+      <c r="B229" s="135"/>
+      <c r="C229" s="136"/>
+      <c r="D229" s="137"/>
+      <c r="E229" s="138"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="126"/>
-      <c r="C230" s="127"/>
-      <c r="D230" s="128"/>
-      <c r="E230" s="129"/>
+      <c r="B230" s="135"/>
+      <c r="C230" s="136"/>
+      <c r="D230" s="137"/>
+      <c r="E230" s="138"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="126"/>
-      <c r="C231" s="127"/>
-      <c r="D231" s="128"/>
-      <c r="E231" s="129"/>
+      <c r="B231" s="135"/>
+      <c r="C231" s="136"/>
+      <c r="D231" s="137"/>
+      <c r="E231" s="138"/>
     </row>
     <row r="232" spans="2:5">
-      <c r="B232" s="126"/>
-      <c r="C232" s="127"/>
-      <c r="D232" s="128"/>
-      <c r="E232" s="129"/>
+      <c r="B232" s="135"/>
+      <c r="C232" s="136"/>
+      <c r="D232" s="137"/>
+      <c r="E232" s="138"/>
     </row>
     <row r="233" spans="2:5">
-      <c r="B233" s="126"/>
-      <c r="C233" s="127"/>
-      <c r="D233" s="128"/>
-      <c r="E233" s="129"/>
+      <c r="B233" s="135"/>
+      <c r="C233" s="136"/>
+      <c r="D233" s="137"/>
+      <c r="E233" s="138"/>
     </row>
     <row r="234" spans="2:5">
-      <c r="B234" s="126"/>
-      <c r="C234" s="127"/>
-      <c r="D234" s="128"/>
-      <c r="E234" s="129"/>
+      <c r="B234" s="135"/>
+      <c r="C234" s="136"/>
+      <c r="D234" s="137"/>
+      <c r="E234" s="138"/>
     </row>
     <row r="235" spans="2:5">
-      <c r="B235" s="126"/>
-      <c r="C235" s="127"/>
-      <c r="D235" s="128"/>
-      <c r="E235" s="129"/>
+      <c r="B235" s="135"/>
+      <c r="C235" s="136"/>
+      <c r="D235" s="137"/>
+      <c r="E235" s="138"/>
     </row>
     <row r="236" spans="2:5">
-      <c r="B236" s="126"/>
-      <c r="C236" s="127"/>
-      <c r="D236" s="128"/>
-      <c r="E236" s="129"/>
+      <c r="B236" s="135"/>
+      <c r="C236" s="136"/>
+      <c r="D236" s="137"/>
+      <c r="E236" s="138"/>
     </row>
     <row r="237" spans="2:5">
-      <c r="B237" s="126"/>
-      <c r="C237" s="127"/>
-      <c r="D237" s="128"/>
-      <c r="E237" s="129"/>
+      <c r="B237" s="135"/>
+      <c r="C237" s="136"/>
+      <c r="D237" s="137"/>
+      <c r="E237" s="138"/>
     </row>
     <row r="238" spans="2:5">
-      <c r="B238" s="126"/>
-      <c r="C238" s="127"/>
-      <c r="D238" s="128"/>
-      <c r="E238" s="129"/>
+      <c r="B238" s="135"/>
+      <c r="C238" s="136"/>
+      <c r="D238" s="137"/>
+      <c r="E238" s="138"/>
     </row>
     <row r="239" spans="2:5">
-      <c r="B239" s="126"/>
-      <c r="C239" s="127"/>
-      <c r="D239" s="128"/>
-      <c r="E239" s="129"/>
+      <c r="B239" s="135"/>
+      <c r="C239" s="136"/>
+      <c r="D239" s="137"/>
+      <c r="E239" s="138"/>
     </row>
     <row r="240" spans="2:5">
-      <c r="B240" s="126"/>
-      <c r="C240" s="127"/>
-      <c r="D240" s="128"/>
-      <c r="E240" s="129"/>
+      <c r="B240" s="135"/>
+      <c r="C240" s="136"/>
+      <c r="D240" s="137"/>
+      <c r="E240" s="138"/>
     </row>
     <row r="241" spans="2:5">
-      <c r="B241" s="126"/>
-      <c r="C241" s="127"/>
-      <c r="D241" s="128"/>
-      <c r="E241" s="129"/>
+      <c r="B241" s="135"/>
+      <c r="C241" s="136"/>
+      <c r="D241" s="137"/>
+      <c r="E241" s="138"/>
     </row>
     <row r="242" spans="2:5">
-      <c r="B242" s="126"/>
-      <c r="C242" s="127"/>
-      <c r="D242" s="128"/>
-      <c r="E242" s="129"/>
+      <c r="B242" s="135"/>
+      <c r="C242" s="136"/>
+      <c r="D242" s="137"/>
+      <c r="E242" s="138"/>
     </row>
     <row r="243" spans="2:5">
-      <c r="B243" s="126"/>
-      <c r="C243" s="127"/>
-      <c r="D243" s="128"/>
-      <c r="E243" s="129"/>
+      <c r="B243" s="135"/>
+      <c r="C243" s="136"/>
+      <c r="D243" s="137"/>
+      <c r="E243" s="138"/>
     </row>
     <row r="244" spans="2:5">
-      <c r="B244" s="126"/>
-      <c r="C244" s="127"/>
-      <c r="D244" s="128"/>
-      <c r="E244" s="129"/>
+      <c r="B244" s="135"/>
+      <c r="C244" s="136"/>
+      <c r="D244" s="137"/>
+      <c r="E244" s="138"/>
     </row>
     <row r="245" spans="2:5">
-      <c r="B245" s="126"/>
-      <c r="C245" s="127"/>
-      <c r="D245" s="128"/>
-      <c r="E245" s="129"/>
+      <c r="B245" s="135"/>
+      <c r="C245" s="136"/>
+      <c r="D245" s="137"/>
+      <c r="E245" s="138"/>
     </row>
     <row r="246" spans="2:5">
-      <c r="B246" s="126"/>
-      <c r="C246" s="127"/>
-      <c r="D246" s="128"/>
-      <c r="E246" s="129"/>
+      <c r="B246" s="135"/>
+      <c r="C246" s="136"/>
+      <c r="D246" s="137"/>
+      <c r="E246" s="138"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5712,6 +5895,9 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="E113" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/protected/commands/template/m_template_one.xlsx
+++ b/protected/commands/template/m_template_one.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
@@ -39,7 +39,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>微軟用戶:</t>
@@ -47,7 +47,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,7 +60,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>這個是在20號的財務報表裏面取得的</t>
@@ -72,7 +72,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,7 +85,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
@@ -98,7 +98,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
@@ -1507,9 +1507,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1610,16 +1610,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,10 +1626,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1647,23 +1639,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1680,38 +1683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1720,16 +1691,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1752,10 +1737,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1764,20 +1778,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1795,12 +1795,12 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1843,7 +1843,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,13 +1939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,19 +1951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,13 +1987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,19 +2011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,31 +2023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,13 +2047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,85 +2071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,21 +2209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2242,17 +2227,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2277,17 +2283,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2320,205 +2320,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2530,22 +2530,22 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2649,11 +2649,11 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2978,10 +2978,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3013,26 +3013,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3395,18 +3395,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.8796296296296" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.8796296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.8833333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="8" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="9" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
@@ -3422,7 +3422,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" ht="33.15" spans="1:6">
+    <row r="2" ht="33.75" spans="1:6">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3490,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A13" s="23" t="s">
         <v>18</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A14" s="23" t="s">
         <v>19</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A17" s="23" t="s">
         <v>23</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A18" s="23" t="s">
         <v>24</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A20" s="23" t="s">
         <v>26</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A21" s="23" t="s">
         <v>27</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A22" s="23" t="s">
         <v>28</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A23" s="23" t="s">
         <v>30</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A24" s="23" t="s">
         <v>31</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A26" s="23" t="s">
         <v>35</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A27" s="23" t="s">
         <v>37</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A28" s="23" t="s">
         <v>39</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A29" s="23" t="s">
         <v>41</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A30" s="23"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
@@ -3740,7 +3740,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A31" s="23" t="s">
         <v>42</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A32" s="23" t="s">
         <v>43</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A33" s="23" t="s">
         <v>44</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A34" s="23" t="s">
         <v>45</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A35" s="23" t="s">
         <v>46</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="36" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A36" s="23"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -3798,7 +3798,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="37" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A37" s="23" t="s">
         <v>47</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="38" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A38" s="23" t="s">
         <v>48</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="39" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A39" s="23" t="s">
         <v>49</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="40" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A40" s="23"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
@@ -3836,7 +3836,7 @@
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="41" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A41" s="23" t="s">
         <v>50</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="43" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A43" s="23" t="s">
         <v>52</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="44" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A44" s="23" t="s">
         <v>54</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="45" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A45" s="23" t="s">
         <v>55</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="46" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A46" s="23" t="s">
         <v>56</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="47" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A47" s="23" t="s">
         <v>57</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="48" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A48" s="23" t="s">
         <v>58</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="49" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A49" s="23" t="s">
         <v>59</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="50" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A50" s="23" t="s">
         <v>60</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="51" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A51" s="23" t="s">
         <v>61</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="52" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A52" s="23" t="s">
         <v>62</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="53" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A53" s="23"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -3966,7 +3966,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="54" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A54" s="23" t="s">
         <v>63</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="55" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A55" s="23" t="s">
         <v>64</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="56" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A56" s="23" t="s">
         <v>65</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="E56" s="27"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="57" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A57" s="23" t="s">
         <v>66</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="58" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A58" s="23" t="s">
         <v>67</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="59" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A59" s="23" t="s">
         <v>68</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="28.35" spans="1:6">
+    <row r="60" s="1" customFormat="1" ht="29.25" spans="1:6">
       <c r="A60" s="31" t="s">
         <v>69</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="61" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A61" s="23"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
@@ -4044,7 +4044,7 @@
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="62" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A62" s="23" t="s">
         <v>70</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="E62" s="27"/>
       <c r="F62" s="28"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="63" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A63" s="23" t="s">
         <v>71</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="64" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A64" s="23" t="s">
         <v>72</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="65" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A65" s="23" t="s">
         <v>73</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="66" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A66" s="23" t="s">
         <v>74</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="E66" s="27"/>
       <c r="F66" s="28"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="67" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A67" s="23" t="s">
         <v>75</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="E67" s="27"/>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="68" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A68" s="23" t="s">
         <v>76</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="69" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A69" s="23" t="s">
         <v>77</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="E69" s="27"/>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="70" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A70" s="23" t="s">
         <v>78</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="71" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A71" s="23" t="s">
         <v>79</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="28"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="14.55" spans="1:6">
+    <row r="72" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A72" s="23" t="s">
         <v>80</v>
       </c>
@@ -4154,164 +4154,144 @@
       <c r="E72" s="27"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" ht="22.95" spans="1:6">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="38"/>
-    </row>
-    <row r="74" ht="22.95" spans="1:6">
-      <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="41" t="s">
+    <row r="73" s="1" customFormat="1" ht="21.75" spans="1:6">
+      <c r="A73" s="23"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="21.75" spans="1:6">
+      <c r="A74" s="23"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" ht="21.75" spans="1:6">
+      <c r="A75" s="34"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" ht="21.75" spans="1:6">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43">
-        <f>SUM(F75:F124)</f>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43">
+        <f>SUM(F77:F126)</f>
         <v>37.237012987013</v>
       </c>
     </row>
-    <row r="75" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A75" s="44" t="s">
+    <row r="77" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A77" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="48">
-        <f>SUM(E76:E86)/55*30</f>
+      <c r="B77" s="18"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="48">
+        <f>SUM(E78:E88)/55*30</f>
         <v>14.7272727272727</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A76" s="49" t="s">
+    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A78" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B78" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C78" s="51">
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="139" t="s">
+      <c r="D78" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="53">
-        <f>IF(C76&gt;=0.15,5,IF(C76&gt;=0.9,4,IF(C76&gt;=0,3,IF(C76&gt;=-0.14,2,IF(C76&gt;=-0.3,1,0)))))</f>
+      <c r="E78" s="53">
+        <f>IF(C78&gt;=0.15,5,IF(C78&gt;=0.9,4,IF(C78&gt;=0,3,IF(C78&gt;=-0.14,2,IF(C78&gt;=-0.3,1,0)))))</f>
         <v>3</v>
       </c>
-      <c r="F76" s="54"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50" t="s">
+      <c r="F78" s="54"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A79" s="49"/>
+      <c r="B79" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C79" s="51">
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="139" t="s">
+      <c r="D79" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="E77" s="53">
-        <f>IF(C77&gt;=0.15,5,IF(C77&gt;=0.9,4,IF(C77&gt;=0,3,IF(C77&gt;-0.14,2,IF(C77&gt;-0.3,1,0)))))</f>
+      <c r="E79" s="53">
+        <f>IF(C79&gt;=0.15,5,IF(C79&gt;=0.9,4,IF(C79&gt;=0,3,IF(C79&gt;-0.14,2,IF(C79&gt;-0.3,1,0)))))</f>
         <v>3</v>
       </c>
-      <c r="F77" s="54"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A78" s="49"/>
-      <c r="B78" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="56">
-        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="53">
-        <f>IF(C78&gt;=0.3,5,IF(C78&gt;=0.2,4,IF(C78&gt;=0.05,3,IF(C78&gt;=-0.09,2,IF(C78&gt;=-0.2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F78" s="57"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A79" s="49"/>
-      <c r="B79" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="56">
-        <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="53">
-        <f>IF(C79&gt;=0.3,5,IF(C79&gt;=0.2,4,IF(C79&gt;=0.1,3,IF(C79&gt;=-0.09,2,IF(C79&gt;=-0.2,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F79" s="57"/>
+      <c r="F79" s="54"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A80" s="49"/>
       <c r="B80" s="55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C80" s="56">
-        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
+        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
       <c r="D80" s="139" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E80" s="53">
-        <f>IF(C80&gt;=1.5,5,IF(C80&gt;=1,4,IF(C80&gt;=0,3,IF(C80&gt;=-0.99,2,IF(C80&gt;-2,1,0)))))</f>
-        <v>3</v>
+        <f>IF(C80&gt;=0.3,5,IF(C80&gt;=0.2,4,IF(C80&gt;=0.05,3,IF(C80&gt;=-0.09,2,IF(C80&gt;=-0.2,1,0)))))</f>
+        <v>2</v>
       </c>
       <c r="F80" s="57"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A81" s="49"/>
       <c r="B81" s="55" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C81" s="56">
-        <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
+        <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
       <c r="D81" s="139" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E81" s="53">
-        <f>IF(C81&gt;=1.5,5,IF(C81&gt;=1,4,IF(C81&gt;=0,3,IF(C81&gt;=-0.99,2,IF(C81&gt;=-2,1,0)))))</f>
-        <v>3</v>
+        <f>IF(C81&gt;=0.3,5,IF(C81&gt;=0.2,4,IF(C81&gt;=0.1,3,IF(C81&gt;=-0.09,2,IF(C81&gt;=-0.2,1,0)))))</f>
+        <v>2</v>
       </c>
       <c r="F81" s="57"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A82" s="49"/>
       <c r="B82" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C82" s="56">
-        <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
+        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
       <c r="D82" s="139" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E82" s="53">
-        <f>IF(C82&gt;=0.15,5,IF(C82&gt;=0.09,4,IF(C82&gt;=0,3,IF(C82&gt;=-0.09,2,IF(C82&gt;=-0.2,1,0)))))</f>
+        <f>IF(C82&gt;=1.5,5,IF(C82&gt;=1,4,IF(C82&gt;=0,3,IF(C82&gt;=-0.99,2,IF(C82&gt;-2,1,0)))))</f>
         <v>3</v>
       </c>
       <c r="F82" s="57"/>
@@ -4319,572 +4299,572 @@
     <row r="83" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A83" s="49"/>
       <c r="B83" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="56">
+        <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="53">
+        <f>IF(C83&gt;=1.5,5,IF(C83&gt;=1,4,IF(C83&gt;=0,3,IF(C83&gt;=-0.99,2,IF(C83&gt;=-2,1,0)))))</f>
+        <v>3</v>
+      </c>
+      <c r="F83" s="57"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A84" s="49"/>
+      <c r="B84" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="56">
+        <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="53">
+        <f>IF(C84&gt;=0.15,5,IF(C84&gt;=0.09,4,IF(C84&gt;=0,3,IF(C84&gt;=-0.09,2,IF(C84&gt;=-0.2,1,0)))))</f>
+        <v>3</v>
+      </c>
+      <c r="F84" s="57"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A85" s="49"/>
+      <c r="B85" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C85" s="56">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="139" t="s">
+      <c r="D85" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="53">
-        <f>IF(C83&gt;=0.15,5,IF(C83&gt;=0.09,4,IF(C83&gt;=0,3,IF(C83&gt;=-0.15,2,IF(C83&gt;=-0.3,1,0)))))</f>
+      <c r="E85" s="53">
+        <f>IF(C85&gt;=0.15,5,IF(C85&gt;=0.09,4,IF(C85&gt;=0,3,IF(C85&gt;=-0.15,2,IF(C85&gt;=-0.3,1,0)))))</f>
         <v>3</v>
       </c>
-      <c r="F83" s="57"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A84" s="58" t="s">
+      <c r="F85" s="57"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A86" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B86" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C86" s="56">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="60" t="s">
+      <c r="D86" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="E84" s="53">
-        <f>IF(C84&gt;=2.3,1,IF(C84&gt;=1.5,3,IF(C84&gt;=1,5,IF(C84&gt;=0.7,4,IF(C84&gt;=0.4,2,IF(C84&gt;=0.2,1,0))))))</f>
+      <c r="E86" s="53">
+        <f>IF(C86&gt;=2.3,1,IF(C86&gt;=1.5,3,IF(C86&gt;=1,5,IF(C86&gt;=0.7,4,IF(C86&gt;=0.4,2,IF(C86&gt;=0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F84" s="57"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A85" s="58"/>
-      <c r="B85" s="59" t="s">
+      <c r="F86" s="57"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A87" s="58"/>
+      <c r="B87" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="56">
+      <c r="C87" s="56">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D87" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="53">
-        <f>IF(C85&gt;=1,1,IF(C85&gt;=0.8,3,IF(C85&gt;=0.6,5,IF(C85&gt;=0.4,4,IF(C85&gt;=0.2,2,IF(C85&gt;=0.05,1,0))))))</f>
+      <c r="E87" s="53">
+        <f>IF(C87&gt;=1,1,IF(C87&gt;=0.8,3,IF(C87&gt;=0.6,5,IF(C87&gt;=0.4,4,IF(C87&gt;=0.2,2,IF(C87&gt;=0.05,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F85" s="57"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A86" s="61" t="s">
+      <c r="F87" s="57"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A88" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B88" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="56">
+      <c r="C88" s="56">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="60" t="s">
+      <c r="D88" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="53">
-        <f>IF(C86&gt;=0.039,1,IF(C86&gt;=0.029,2,IF(C86&gt;=0.02,3,IF(C86&gt;=0.009,4,IF(C86&gt;=0,5)))))</f>
+      <c r="E88" s="53">
+        <f>IF(C88&gt;=0.039,1,IF(C88&gt;=0.029,2,IF(C88&gt;=0.02,3,IF(C88&gt;=0.009,4,IF(C88&gt;=0,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F86" s="57"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A87" s="62" t="s">
+      <c r="F88" s="57"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A89" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="67">
-        <f>SUM(E88:F94)/25*20</f>
+      <c r="B89" s="63"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="67">
+        <f>SUM(E90:F96)/25*20</f>
         <v>8</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A88" s="68" t="s">
+    <row r="90" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A90" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="69" t="s">
+      <c r="B90" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="70">
+      <c r="C90" s="70">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D90" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E88" s="72">
-        <f>IF(C88&gt;=0.2,5,IF(C88&gt;=0,4,IF(C88&gt;=-0.09,3,IF(C88&gt;=-0.19,2,IF(C88&gt;=-0.29,1,0)))))</f>
+      <c r="E90" s="72">
+        <f>IF(C90&gt;=0.2,5,IF(C90&gt;=0,4,IF(C90&gt;=-0.09,3,IF(C90&gt;=-0.19,2,IF(C90&gt;=-0.29,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F88" s="73"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="46.2" spans="1:6">
-      <c r="A89" s="68"/>
-      <c r="B89" s="69" t="s">
+      <c r="F90" s="73"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="46.5" spans="1:6">
+      <c r="A91" s="68"/>
+      <c r="B91" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="70">
+      <c r="C91" s="70">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D91" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E89" s="72">
-        <f>IF(C89&gt;=0.7,5,IF(C89&gt;=0.3,4,IF(C89&gt;=0.1,3,0)))</f>
+      <c r="E91" s="72">
+        <f>IF(C91&gt;=0.7,5,IF(C91&gt;=0.3,4,IF(C91&gt;=0.1,3,0)))</f>
         <v>0</v>
       </c>
-      <c r="F89" s="73"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="32.4" spans="1:6">
-      <c r="A90" s="68"/>
-      <c r="B90" s="69" t="s">
+      <c r="F91" s="73"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="74">
+      <c r="C92" s="74">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D90" s="75" t="s">
+      <c r="D92" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E92" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="73"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A91" s="68" t="s">
+      <c r="F92" s="73"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A93" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B93" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="70">
+      <c r="C93" s="70">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D93" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E91" s="72">
-        <f>IF(C91&gt;0.31,0,IF(C91&gt;=0.26,1,IF(C91&gt;=0.21,2,IF(C91&gt;=0.16,3,IF(C91&gt;=0.11,4,5)))))</f>
+      <c r="E93" s="72">
+        <f>IF(C93&gt;0.31,0,IF(C93&gt;=0.26,1,IF(C93&gt;=0.21,2,IF(C93&gt;=0.16,3,IF(C93&gt;=0.11,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F91" s="73"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A92" s="68"/>
-      <c r="B92" s="69" t="s">
+      <c r="F93" s="73"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A94" s="68"/>
+      <c r="B94" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="70">
+      <c r="C94" s="70">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D94" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="72">
-        <f>IF(C92&gt;0.26,0,IF(C92&gt;=0.21,1,IF(C92&gt;=0.16,2,IF(C92&gt;=0.11,3,IF(C92&gt;=0.06,4,5)))))</f>
+      <c r="E94" s="72">
+        <f>IF(C94&gt;0.26,0,IF(C94&gt;=0.21,1,IF(C94&gt;=0.16,2,IF(C94&gt;=0.11,3,IF(C94&gt;=0.06,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F92" s="73"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A93" s="68" t="s">
+      <c r="F94" s="73"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A95" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B95" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="77">
+      <c r="C95" s="77">
         <f>B37/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="78" t="s">
+      <c r="D95" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="72">
-        <f>IF(C93&gt;0.2,5,IF(C93&gt;=0.1,3,IF(C93&gt;=0.1,1,0)))</f>
+      <c r="E95" s="72">
+        <f>IF(C95&gt;0.2,5,IF(C95&gt;=0.1,3,IF(C95&gt;=0.1,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="73"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="32.4" spans="1:6">
-      <c r="A94" s="68"/>
-      <c r="B94" s="76" t="s">
+      <c r="F95" s="73"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A96" s="68"/>
+      <c r="B96" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="79" t="s">
+      <c r="C96" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="75" t="s">
+      <c r="D96" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E96" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="73"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A95" s="62" t="s">
+      <c r="F96" s="73"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A97" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="67">
-        <f>SUM(E96:E100)/20*25</f>
+      <c r="B97" s="63"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="67">
+        <f>SUM(E98:E102)/20*25</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A96" s="83" t="s">
+    <row r="98" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A98" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="84" t="s">
+      <c r="B98" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C96" s="85">
+      <c r="C98" s="85">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="86" t="s">
+      <c r="D98" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E96" s="87">
-        <f>IF(C96&gt;=0.55,5,IF(C96&gt;=0.5,4,IF(C96&gt;=0.45,3,IF(C96&gt;=0.4,2,IF(C96&gt;=0.36,1,0)))))</f>
+      <c r="E98" s="87">
+        <f>IF(C98&gt;=0.55,5,IF(C98&gt;=0.5,4,IF(C98&gt;=0.45,3,IF(C98&gt;=0.4,2,IF(C98&gt;=0.36,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F96" s="88"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A97" s="83"/>
-      <c r="B97" s="84" t="s">
+      <c r="F98" s="88"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A99" s="83"/>
+      <c r="B99" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="85">
+      <c r="C99" s="85">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="86" t="s">
+      <c r="D99" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="87">
-        <f>IF(C97&gt;0.5,1,IF(C97&gt;=0.4,2,IF(C97&gt;=0.35,3,IF(C97&gt;=0.25,4,IF(C97&gt;=0.2,5,0)))))</f>
+      <c r="E99" s="87">
+        <f>IF(C99&gt;0.5,1,IF(C99&gt;=0.4,2,IF(C99&gt;=0.35,3,IF(C99&gt;=0.25,4,IF(C99&gt;=0.2,5,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F97" s="88"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A98" s="83" t="s">
+      <c r="F99" s="88"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A100" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="84" t="s">
+      <c r="B100" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="89">
+      <c r="C100" s="89">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="90" t="s">
+      <c r="D100" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="87">
-        <f>IF(C98&gt;=1,5,IF(C98&gt;=0.95,4,IF(C98&gt;=0.9,3,IF(C98&gt;=0.85,2,IF(C98&gt;=0.8,1,0)))))</f>
+      <c r="E100" s="87">
+        <f>IF(C100&gt;=1,5,IF(C100&gt;=0.95,4,IF(C100&gt;=0.9,3,IF(C100&gt;=0.85,2,IF(C100&gt;=0.8,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F98" s="88"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="32.4" spans="1:6">
-      <c r="A99" s="83"/>
-      <c r="B99" s="91" t="s">
+      <c r="F100" s="88"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A101" s="83"/>
+      <c r="B101" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="92">
+      <c r="C101" s="92">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="D99" s="93" t="s">
+      <c r="D101" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E99" s="87" t="s">
+      <c r="E101" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="88"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A100" s="83" t="s">
+      <c r="F101" s="88"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A102" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="91" t="s">
+      <c r="B102" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="85">
+      <c r="C102" s="85">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="86" t="s">
+      <c r="D102" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="E100" s="87">
-        <f>IF(C100&gt;=0.8,0,IF(C100&gt;=0.61,1,IF(C100&gt;=0.51,2,IF(C100&gt;=0.41,3,IF(C100&gt;=0.31,4,5)))))</f>
+      <c r="E102" s="87">
+        <f>IF(C102&gt;=0.8,0,IF(C102&gt;=0.61,1,IF(C102&gt;=0.51,2,IF(C102&gt;=0.41,3,IF(C102&gt;=0.31,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F100" s="88"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A101" s="62" t="s">
+      <c r="F102" s="88"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A103" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="94"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="67">
-        <f>SUM(E102:E115)/55*15</f>
+      <c r="B103" s="63"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="67">
+        <f>SUM(E104:E117)/55*15</f>
         <v>0.545454545454545</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1" ht="96" spans="1:6">
-      <c r="A102" s="97" t="s">
+    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A104" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="98" t="s">
+      <c r="B104" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="99">
+      <c r="C104" s="99">
         <f>B52/IF(B32=0,1,B32)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="100" t="s">
+      <c r="D104" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="E102" s="101">
-        <f t="shared" ref="E102:E104" si="0">IF(C102&gt;=0.95,5,IF(C102&gt;=0.9,4,IF(C102&gt;=0.85,3,IF(C102&gt;=0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
+      <c r="E104" s="101">
+        <f t="shared" ref="E104:E106" si="0">IF(C104&gt;=0.95,5,IF(C104&gt;=0.9,4,IF(C104&gt;=0.85,3,IF(C104&gt;=0.8,2,IF(C104&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F102" s="102"/>
-    </row>
-    <row r="103" s="3" customFormat="1" ht="96" spans="1:6">
-      <c r="A103" s="97" t="s">
+      <c r="F104" s="102"/>
+    </row>
+    <row r="105" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A105" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="B103" s="98" t="s">
+      <c r="B105" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C103" s="99">
+      <c r="C105" s="99">
         <f>B57/IF(B56=0,1,B56)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="100" t="s">
+      <c r="D105" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="E103" s="101">
+      <c r="E105" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F103" s="102"/>
-    </row>
-    <row r="104" s="3" customFormat="1" ht="96" spans="1:6">
-      <c r="A104" s="97"/>
-      <c r="B104" s="98" t="s">
+      <c r="F105" s="102"/>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A106" s="97"/>
+      <c r="B106" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="99">
+      <c r="C106" s="99">
         <f>B59/IF(B58=0,1,B58)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="100" t="s">
+      <c r="D106" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="101">
+      <c r="E106" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F104" s="102"/>
-    </row>
-    <row r="105" s="3" customFormat="1" ht="32.4" spans="1:6">
-      <c r="A105" s="97"/>
-      <c r="B105" s="103" t="s">
+      <c r="F106" s="102"/>
+    </row>
+    <row r="107" s="3" customFormat="1" ht="33" spans="1:6">
+      <c r="A107" s="97"/>
+      <c r="B107" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="C105" s="104" t="s">
+      <c r="C107" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="105" t="s">
+      <c r="D107" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="101" t="s">
+      <c r="E107" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="F105" s="102"/>
-    </row>
-    <row r="106" s="3" customFormat="1" ht="96" spans="1:6">
-      <c r="A106" s="97" t="s">
+      <c r="F107" s="102"/>
+    </row>
+    <row r="108" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A108" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="B106" s="98" t="s">
+      <c r="B108" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="106">
+      <c r="C108" s="106">
         <f>B60/100</f>
         <v>0</v>
       </c>
-      <c r="D106" s="107" t="s">
+      <c r="D108" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="101">
-        <f>IF(C106&gt;=1.08,0,IF(C106&gt;=1.04,1,IF(C106&gt;=1.01,3,IF(C106&gt;=0.96,5,IF(C106&gt;=0.92,3,IF(C106&gt;=0.88,1,0))))))</f>
+      <c r="E108" s="101">
+        <f>IF(C108&gt;=1.08,0,IF(C108&gt;=1.04,1,IF(C108&gt;=1.01,3,IF(C108&gt;=0.96,5,IF(C108&gt;=0.92,3,IF(C108&gt;=0.88,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F106" s="102"/>
-    </row>
-    <row r="107" s="3" customFormat="1" ht="96" spans="1:6">
-      <c r="A107" s="97"/>
-      <c r="B107" s="98" t="s">
+      <c r="F108" s="102"/>
+    </row>
+    <row r="109" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A109" s="97"/>
+      <c r="B109" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="106">
+      <c r="C109" s="106">
         <f>B51/IF(B34=0,1,B34)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="100" t="s">
+      <c r="D109" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="E107" s="101">
-        <f>IF(C107&gt;=0.96,5,IF(C107&gt;=0.91,4,IF(C107&gt;=0.86,3,IF(C107&gt;=0.81,2,IF(C107&gt;=0.76,1,0)))))</f>
+      <c r="E109" s="101">
+        <f>IF(C109&gt;=0.96,5,IF(C109&gt;=0.91,4,IF(C109&gt;=0.86,3,IF(C109&gt;=0.81,2,IF(C109&gt;=0.76,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F107" s="102"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="97.2" spans="1:6">
-      <c r="A108" s="97" t="s">
+      <c r="F109" s="102"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A110" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="98" t="s">
+      <c r="B110" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="99">
+      <c r="C110" s="99">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="100" t="s">
+      <c r="D110" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="E108" s="101">
-        <f>IF(C108&gt;=0.9,5,IF(C108&gt;=0.7,4,IF(C108&gt;=0.5,3,IF(C108&gt;=0.3,2,IF(C108&gt;=0.1,1,0)))))</f>
+      <c r="E110" s="101">
+        <f>IF(C110&gt;=0.9,5,IF(C110&gt;=0.7,4,IF(C110&gt;=0.5,3,IF(C110&gt;=0.3,2,IF(C110&gt;=0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="108"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="64.8" spans="1:6">
-      <c r="A109" s="97"/>
-      <c r="B109" s="98" t="s">
+      <c r="F110" s="108"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A111" s="97"/>
+      <c r="B111" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="99">
+      <c r="C111" s="99">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="100" t="s">
+      <c r="D111" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="109">
-        <f>IF(C109&gt;0.2,3,IF(C109&gt;=0.1,5,IF(C109&gt;=0,1,0)))</f>
+      <c r="E111" s="109">
+        <f>IF(C111&gt;0.2,3,IF(C111&gt;=0.1,5,IF(C111&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="108"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="32.4" spans="1:6">
-      <c r="A110" s="97"/>
-      <c r="B110" s="103" t="s">
+      <c r="F111" s="108"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A112" s="97"/>
+      <c r="B112" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="99">
+      <c r="C112" s="99">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D110" s="110" t="s">
+      <c r="D112" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="101" t="s">
+      <c r="E112" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="F110" s="108"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A111" s="97" t="s">
+      <c r="F112" s="108"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A113" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="98" t="s">
+      <c r="B113" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="99">
+      <c r="C113" s="99">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
-      <c r="D111" s="100" t="s">
+      <c r="D113" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="E111" s="101">
-        <f>IF(C111&gt;=6,0,IF(C111&gt;=0,1,IF(C111&gt;=-0.04,2,IF(C111&gt;=-0.09,3,IF(C111&gt;=-0.14,4,5)))))</f>
+      <c r="E113" s="101">
+        <f>IF(C113&gt;=6,0,IF(C113&gt;=0,1,IF(C113&gt;=-0.04,2,IF(C113&gt;=-0.09,3,IF(C113&gt;=-0.14,4,5)))))</f>
         <v>1</v>
       </c>
-      <c r="F111" s="108"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="96" spans="1:6">
-      <c r="A112" s="97"/>
-      <c r="B112" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="99">
-        <f>B44/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" s="101">
-        <f>IF(C112&gt;=0.95,5,IF(C112&gt;=0.9,4,IF(C112&gt;=0.85,3,IF(C112&gt;=0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="108"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="63.6" spans="1:6">
-      <c r="A113" s="97"/>
-      <c r="B113" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="112">
-        <f>B46/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="E113" s="113">
-        <f>IF(C113&gt;=0.08,5,IF(C113&gt;=0.06,3,IF(C113&gt;=0.04,1,0)))</f>
-        <v>0</v>
-      </c>
       <c r="F113" s="108"/>
     </row>
-    <row r="114" s="2" customFormat="1" ht="96" spans="1:6">
+    <row r="114" s="2" customFormat="1" ht="97.5" spans="1:6">
       <c r="A114" s="97"/>
       <c r="B114" s="98" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C114" s="99">
-        <f>B45/IF(B42=0,1,B42)</f>
+        <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
       <c r="D114" s="100" t="s">
@@ -4896,199 +4876,219 @@
       </c>
       <c r="F114" s="108"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="32.4" spans="1:6">
+    <row r="115" s="2" customFormat="1" ht="64.5" spans="1:6">
       <c r="A115" s="97"/>
       <c r="B115" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="112">
+        <f>B46/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="113">
+        <f>IF(C115&gt;=0.08,5,IF(C115&gt;=0.06,3,IF(C115&gt;=0.04,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="108"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A116" s="97"/>
+      <c r="B116" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="99">
+        <f>B45/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" s="101">
+        <f>IF(C116&gt;=0.95,5,IF(C116&gt;=0.9,4,IF(C116&gt;=0.85,3,IF(C116&gt;=0.8,2,IF(C116&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="108"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A117" s="97"/>
+      <c r="B117" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="112">
+      <c r="C117" s="112">
         <f>B47</f>
         <v>0</v>
       </c>
-      <c r="D115" s="105" t="s">
+      <c r="D117" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="E115" s="101" t="s">
+      <c r="E117" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="F115" s="108"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A116" s="62" t="s">
+      <c r="F117" s="108"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A118" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="B116" s="63"/>
-      <c r="C116" s="94"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="67">
-        <f>SUM(E117:E124)/35*10</f>
+      <c r="B118" s="63"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="67">
+        <f>SUM(E119:E126)/35*10</f>
         <v>7.71428571428571</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A117" s="115" t="s">
+    <row r="119" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A119" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="116" t="s">
+      <c r="B119" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="117">
+      <c r="C119" s="117">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="118" t="s">
+      <c r="D119" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="E117" s="119">
-        <f>IF(C117&gt;6,0,IF(C117&gt;=4,3,IF(C117&gt;=1,4,5)))</f>
+      <c r="E119" s="119">
+        <f>IF(C119&gt;6,0,IF(C119&gt;=4,3,IF(C119&gt;=1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="120"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A118" s="121" t="s">
+      <c r="F119" s="120"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A120" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="116" t="s">
+      <c r="B120" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="122">
+      <c r="C120" s="122">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="123" t="s">
+      <c r="D120" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="E118" s="119">
-        <f>IF(C118&gt;0.31,0,IF(C118&gt;=0.21,1,IF(C118&gt;=0.11,3,5)))</f>
+      <c r="E120" s="119">
+        <f>IF(C120&gt;0.31,0,IF(C120&gt;=0.21,1,IF(C120&gt;=0.11,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="120"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="45" spans="1:6">
-      <c r="A119" s="121"/>
-      <c r="B119" s="116" t="s">
+      <c r="F120" s="120"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A121" s="121"/>
+      <c r="B121" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="122">
+      <c r="C121" s="122">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="118" t="s">
+      <c r="D121" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="E119" s="119">
-        <f>IF(C119&gt;=0.61,1,IF(C119&gt;=0.21,3,5))</f>
+      <c r="E121" s="119">
+        <f>IF(C121&gt;=0.61,1,IF(C121&gt;=0.21,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="120"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A120" s="124" t="s">
+      <c r="F121" s="120"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A122" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="B120" s="125" t="s">
+      <c r="B122" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="C120" s="126">
+      <c r="C122" s="126">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="123" t="s">
+      <c r="D122" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="E120" s="119">
-        <f>IF(C120&gt;0.16,0,IF(C120&gt;=0.11,1,IF(C120&gt;=0.06,3,5)))</f>
+      <c r="E122" s="119">
+        <f>IF(C122&gt;0.16,0,IF(C122&gt;=0.11,1,IF(C122&gt;=0.06,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="120"/>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="64.8" spans="1:6">
-      <c r="A121" s="124"/>
-      <c r="B121" s="125" t="s">
+      <c r="F122" s="120"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A123" s="124"/>
+      <c r="B123" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="C121" s="126">
+      <c r="C123" s="126">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="123" t="s">
+      <c r="D123" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="119">
-        <f>IF(C121&gt;=1,5,IF(C121&gt;=0.8,3,1))</f>
+      <c r="E123" s="119">
+        <f>IF(C123&gt;=1,5,IF(C123&gt;=0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="120"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="64.8" spans="1:6">
-      <c r="A122" s="124"/>
-      <c r="B122" s="125" t="s">
+      <c r="F123" s="120"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A124" s="124"/>
+      <c r="B124" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="117">
+      <c r="C124" s="117">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="123" t="s">
+      <c r="D124" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="E122" s="119">
-        <f>IF(C122&gt;=1,5,IF(C122&gt;=0.81,3,1))</f>
+      <c r="E124" s="119">
+        <f>IF(C124&gt;=1,5,IF(C124&gt;=0.81,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="120"/>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="32.4" hidden="1" spans="1:6">
-      <c r="A123" s="124"/>
-      <c r="B123" s="125" t="s">
+      <c r="F124" s="120"/>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
+      <c r="A125" s="124"/>
+      <c r="B125" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="C123" s="117"/>
-      <c r="D123" s="127" t="s">
+      <c r="C125" s="117"/>
+      <c r="D125" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="E123" s="119" t="s">
+      <c r="E125" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="F123" s="120"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A124" s="128" t="s">
+      <c r="F125" s="120"/>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A126" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="B124" s="125" t="s">
+      <c r="B126" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="C124" s="129">
+      <c r="C126" s="129">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="123" t="s">
+      <c r="D126" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="E124" s="119">
-        <f>IF(C124&gt;0.31,0,IF(C124&gt;=0.21,1,IF(C124&gt;=0.11,3,5)))</f>
+      <c r="E126" s="119">
+        <f>IF(C126&gt;0.31,0,IF(C126&gt;=0.21,1,IF(C126&gt;=0.11,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="120"/>
-    </row>
-    <row r="125" s="2" customFormat="1" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="130"/>
-      <c r="C125" s="131"/>
-      <c r="D125" s="132"/>
-      <c r="E125" s="133"/>
-      <c r="F125" s="134"/>
-    </row>
-    <row r="126" s="2" customFormat="1" spans="1:6">
-      <c r="A126" s="4"/>
-      <c r="B126" s="130"/>
-      <c r="C126" s="131"/>
-      <c r="D126" s="132"/>
-      <c r="E126" s="133"/>
-      <c r="F126" s="134"/>
+      <c r="F126" s="120"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
@@ -5338,17 +5338,21 @@
       <c r="E157" s="133"/>
       <c r="F157" s="134"/>
     </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="135"/>
-      <c r="C158" s="136"/>
-      <c r="D158" s="137"/>
-      <c r="E158" s="138"/>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="135"/>
-      <c r="C159" s="136"/>
-      <c r="D159" s="137"/>
-      <c r="E159" s="138"/>
+    <row r="158" s="2" customFormat="1" spans="1:6">
+      <c r="A158" s="4"/>
+      <c r="B158" s="130"/>
+      <c r="C158" s="131"/>
+      <c r="D158" s="132"/>
+      <c r="E158" s="133"/>
+      <c r="F158" s="134"/>
+    </row>
+    <row r="159" s="2" customFormat="1" spans="1:6">
+      <c r="A159" s="4"/>
+      <c r="B159" s="130"/>
+      <c r="C159" s="131"/>
+      <c r="D159" s="132"/>
+      <c r="E159" s="133"/>
+      <c r="F159" s="134"/>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="135"/>
@@ -5872,31 +5876,43 @@
       <c r="D246" s="137"/>
       <c r="E246" s="138"/>
     </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="135"/>
+      <c r="C247" s="136"/>
+      <c r="D247" s="137"/>
+      <c r="E247" s="138"/>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="135"/>
+      <c r="C248" s="136"/>
+      <c r="D248" s="137"/>
+      <c r="E248" s="138"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A90:A92"/>
     <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A95:A96"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A125"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E113" formula="1"/>
+    <ignoredError sqref="E115" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
